--- a/jsons/GenderGap_Find4Hourglass.xlsx
+++ b/jsons/GenderGap_Find4Hourglass.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="22720" windowHeight="16540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="340" yWindow="0" windowWidth="14560" windowHeight="17540" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Total_W2E" sheetId="9" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId6"/>
     <sheet name="工作表2" sheetId="2" r:id="rId7"/>
     <sheet name="convert_row" sheetId="3" r:id="rId8"/>
+    <sheet name="工作表3" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="189">
   <si>
     <t xml:space="preserve">Labour force participation                              </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -722,26 +723,48 @@
   <si>
     <t>time</t>
   </si>
+  <si>
+    <t>per/capita</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code PPP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>United States,2014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uganda,2010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean age of marriage for women(years)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="###0.00;###0.00"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="###0.00;###0.00"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -771,7 +794,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -780,7 +803,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -788,7 +811,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -817,7 +840,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -825,21 +848,21 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -848,21 +871,21 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -870,14 +893,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1131,7 +1154,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="265">
+  <cellStyleXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1397,8 +1420,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1418,7 +1447,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1433,7 +1462,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1448,7 +1477,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1457,7 +1486,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1502,13 +1531,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1517,13 +1546,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1597,10 +1626,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1629,20 +1658,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="10" xfId="108"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="8" borderId="1" xfId="107" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="8" borderId="1" xfId="107" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="8" borderId="1" xfId="107" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="19" fillId="8" borderId="1" xfId="107" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="106" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1689,43 +1718,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="108" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="106" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="106" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="106" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="106" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="108" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="108" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1740,19 +1733,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1767,279 +1748,338 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="106" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="106" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="106" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="106" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="108" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="108" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" xfId="107" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="265">
-    <cellStyle name="Bad" xfId="107" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="108" builtinId="23"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="Good" xfId="106" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="271">
     <cellStyle name="Normal 2" xfId="105"/>
+    <cellStyle name="好" xfId="106" builtinId="26"/>
+    <cellStyle name="差" xfId="107" builtinId="27"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="检查单元格" xfId="108" builtinId="23"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2054,7 +2094,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2414,11 +2454,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="2137728472"/>
-        <c:axId val="2137731496"/>
+        <c:axId val="2130907592"/>
+        <c:axId val="2130905208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2137728472"/>
+        <c:axId val="2130907592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2427,7 +2467,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137731496"/>
+        <c:crossAx val="2130905208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2435,7 +2475,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137731496"/>
+        <c:axId val="2130905208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2451,13 +2491,14 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2137728472"/>
+        <c:crossAx val="2130907592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2475,7 +2516,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2576,7 +2617,7 @@
                   <c:v>9332.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.42</c:v>
+                  <c:v>12042.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>30470.0</c:v>
@@ -2665,11 +2706,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2137774920"/>
-        <c:axId val="2137777864"/>
+        <c:axId val="2130879832"/>
+        <c:axId val="2130876872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2137774920"/>
+        <c:axId val="2130879832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2678,7 +2719,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2137777864"/>
+        <c:crossAx val="2130876872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2686,7 +2727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2137777864"/>
+        <c:axId val="2130876872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2697,7 +2738,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="2137774920"/>
+        <c:crossAx val="2130879832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3123,8 +3164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="U14" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3153,37 +3194,37 @@
     <row r="1" spans="1:27" ht="34" customHeight="1">
       <c r="A1" s="97"/>
       <c r="B1" s="97"/>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="E1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="129" t="s">
+      <c r="F1" s="113" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="124" t="s">
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="125" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="124" t="s">
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
       <c r="T1" s="71" t="s">
         <v>92</v>
       </c>
@@ -3200,9 +3241,9 @@
     <row r="2" spans="1:27" ht="113" customHeight="1">
       <c r="A2" s="97"/>
       <c r="B2" s="97"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -3271,13 +3312,13 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="110" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="117">
-        <v>1</v>
-      </c>
-      <c r="C3" s="120" t="s">
+      <c r="B3" s="105">
+        <v>1</v>
+      </c>
+      <c r="C3" s="108" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="92">
@@ -3345,9 +3386,9 @@
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="127"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="120"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="108"/>
       <c r="D4" s="92">
         <v>2010</v>
       </c>
@@ -3413,9 +3454,9 @@
       </c>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="127"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="120"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="108"/>
       <c r="D5" s="25">
         <v>2014</v>
       </c>
@@ -3481,7 +3522,7 @@
       </c>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="127"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="91"/>
       <c r="C6" s="92"/>
       <c r="D6" s="25"/>
@@ -3503,11 +3544,11 @@
       <c r="X6" s="101"/>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1">
-      <c r="A7" s="127"/>
-      <c r="B7" s="117">
+      <c r="A7" s="111"/>
+      <c r="B7" s="105">
         <v>2</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="108" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="92">
@@ -3575,9 +3616,9 @@
       </c>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="127"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="120"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="108"/>
       <c r="D8" s="92">
         <v>2010</v>
       </c>
@@ -3643,9 +3684,9 @@
       </c>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="127"/>
-      <c r="B9" s="119"/>
-      <c r="C9" s="120"/>
+      <c r="A9" s="111"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="108"/>
       <c r="D9" s="25">
         <v>2014</v>
       </c>
@@ -3711,7 +3752,7 @@
       </c>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="127"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="91"/>
       <c r="C10" s="92"/>
       <c r="D10" s="25"/>
@@ -3733,11 +3774,11 @@
       <c r="X10" s="101"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A11" s="127"/>
-      <c r="B11" s="117">
+      <c r="A11" s="111"/>
+      <c r="B11" s="105">
         <v>3</v>
       </c>
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="108" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="92">
@@ -3805,9 +3846,9 @@
       </c>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="127"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="120"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="92">
         <v>2010</v>
       </c>
@@ -3873,9 +3914,9 @@
       </c>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="127"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="120"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
       <c r="D13" s="25">
         <v>2014</v>
       </c>
@@ -3941,7 +3982,7 @@
       </c>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="127"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="91"/>
       <c r="C14" s="92"/>
       <c r="D14" s="25"/>
@@ -3963,11 +4004,11 @@
       <c r="X14" s="101"/>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="127"/>
-      <c r="B15" s="117">
+      <c r="A15" s="111"/>
+      <c r="B15" s="105">
         <v>4</v>
       </c>
-      <c r="C15" s="120" t="s">
+      <c r="C15" s="108" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="92">
@@ -4035,9 +4076,9 @@
       </c>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="127"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="120"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="108"/>
       <c r="D16" s="92">
         <v>2010</v>
       </c>
@@ -4103,9 +4144,9 @@
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="127"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="120"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="25">
         <v>2014</v>
       </c>
@@ -4171,7 +4212,7 @@
       </c>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="127"/>
+      <c r="A18" s="111"/>
       <c r="B18" s="91"/>
       <c r="C18" s="92"/>
       <c r="D18" s="25"/>
@@ -4193,11 +4234,11 @@
       <c r="X18" s="101"/>
     </row>
     <row r="19" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A19" s="127"/>
-      <c r="B19" s="117">
+      <c r="A19" s="111"/>
+      <c r="B19" s="105">
         <v>5</v>
       </c>
-      <c r="C19" s="120" t="s">
+      <c r="C19" s="108" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="92">
@@ -4265,9 +4306,9 @@
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="127"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="120"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="108"/>
       <c r="D20" s="92">
         <v>2010</v>
       </c>
@@ -4333,9 +4374,9 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="127"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="120"/>
+      <c r="A21" s="111"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="108"/>
       <c r="D21" s="25">
         <v>2014</v>
       </c>
@@ -4391,7 +4432,7 @@
         <v>313.47000000000003</v>
       </c>
       <c r="V21" s="71">
-        <v>12.42</v>
+        <v>12042</v>
       </c>
       <c r="W21" s="71">
         <v>31</v>
@@ -4401,7 +4442,7 @@
       </c>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="127"/>
+      <c r="A22" s="111"/>
       <c r="B22" s="91"/>
       <c r="C22" s="92"/>
       <c r="D22" s="25"/>
@@ -4423,11 +4464,11 @@
       <c r="X22" s="101"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A23" s="127"/>
-      <c r="B23" s="117">
+      <c r="A23" s="111"/>
+      <c r="B23" s="105">
         <v>6</v>
       </c>
-      <c r="C23" s="120" t="s">
+      <c r="C23" s="108" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="92">
@@ -4495,9 +4536,9 @@
       </c>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="127"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="120"/>
+      <c r="A24" s="111"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="108"/>
       <c r="D24" s="92">
         <v>2010</v>
       </c>
@@ -4563,9 +4604,9 @@
       </c>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="127"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="120"/>
+      <c r="A25" s="111"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="108"/>
       <c r="D25" s="25">
         <v>2014</v>
       </c>
@@ -4631,7 +4672,7 @@
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="127"/>
+      <c r="A26" s="111"/>
       <c r="B26" s="91"/>
       <c r="C26" s="92"/>
       <c r="D26" s="25"/>
@@ -4653,11 +4694,11 @@
       <c r="X26" s="101"/>
     </row>
     <row r="27" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A27" s="127"/>
-      <c r="B27" s="117">
+      <c r="A27" s="111"/>
+      <c r="B27" s="105">
         <v>7</v>
       </c>
-      <c r="C27" s="120" t="s">
+      <c r="C27" s="108" t="s">
         <v>70</v>
       </c>
       <c r="D27" s="92">
@@ -4725,9 +4766,9 @@
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="127"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="120"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="108"/>
       <c r="D28" s="92">
         <v>2010</v>
       </c>
@@ -4793,9 +4834,9 @@
       </c>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="127"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="120"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="108"/>
       <c r="D29" s="25">
         <v>2014</v>
       </c>
@@ -4861,7 +4902,7 @@
       </c>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="127"/>
+      <c r="A30" s="111"/>
       <c r="B30" s="91"/>
       <c r="C30" s="95"/>
       <c r="D30" s="25"/>
@@ -4883,11 +4924,11 @@
       <c r="X30" s="101"/>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="127"/>
-      <c r="B31" s="117">
+      <c r="A31" s="111"/>
+      <c r="B31" s="105">
         <v>8</v>
       </c>
-      <c r="C31" s="121" t="s">
+      <c r="C31" s="114" t="s">
         <v>54</v>
       </c>
       <c r="D31" s="92">
@@ -4955,9 +4996,9 @@
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="127"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="122"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="115"/>
       <c r="D32" s="92">
         <v>2010</v>
       </c>
@@ -5023,9 +5064,9 @@
       </c>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="127"/>
-      <c r="B33" s="119"/>
-      <c r="C33" s="123"/>
+      <c r="A33" s="111"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="116"/>
       <c r="D33" s="25">
         <v>2014</v>
       </c>
@@ -5091,7 +5132,7 @@
       </c>
     </row>
     <row r="34" spans="1:24">
-      <c r="A34" s="127"/>
+      <c r="A34" s="111"/>
       <c r="B34" s="91"/>
       <c r="C34" s="96"/>
       <c r="D34" s="25"/>
@@ -5113,11 +5154,11 @@
       <c r="X34" s="101"/>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="127"/>
-      <c r="B35" s="117">
+      <c r="A35" s="111"/>
+      <c r="B35" s="105">
         <v>9</v>
       </c>
-      <c r="C35" s="120" t="s">
+      <c r="C35" s="108" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="92">
@@ -5185,9 +5226,9 @@
       </c>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="127"/>
-      <c r="B36" s="118"/>
-      <c r="C36" s="120"/>
+      <c r="A36" s="111"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="108"/>
       <c r="D36" s="92">
         <v>2010</v>
       </c>
@@ -5253,9 +5294,9 @@
       </c>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="127"/>
-      <c r="B37" s="119"/>
-      <c r="C37" s="120"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="108"/>
       <c r="D37" s="25">
         <v>2014</v>
       </c>
@@ -5321,7 +5362,7 @@
       </c>
     </row>
     <row r="38" spans="1:24">
-      <c r="A38" s="127"/>
+      <c r="A38" s="111"/>
       <c r="B38" s="91"/>
       <c r="C38" s="92"/>
       <c r="D38" s="25"/>
@@ -5343,11 +5384,11 @@
       <c r="X38" s="101"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="127"/>
-      <c r="B39" s="117">
+      <c r="A39" s="111"/>
+      <c r="B39" s="105">
         <v>10</v>
       </c>
-      <c r="C39" s="120" t="s">
+      <c r="C39" s="108" t="s">
         <v>28</v>
       </c>
       <c r="D39" s="92">
@@ -5415,9 +5456,9 @@
       </c>
     </row>
     <row r="40" spans="1:24">
-      <c r="A40" s="127"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="120"/>
+      <c r="A40" s="111"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="108"/>
       <c r="D40" s="92">
         <v>2010</v>
       </c>
@@ -5483,9 +5524,9 @@
       </c>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="127"/>
-      <c r="B41" s="119"/>
-      <c r="C41" s="120"/>
+      <c r="A41" s="111"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="108"/>
       <c r="D41" s="25">
         <v>2014</v>
       </c>
@@ -5551,7 +5592,7 @@
       </c>
     </row>
     <row r="42" spans="1:24">
-      <c r="A42" s="127"/>
+      <c r="A42" s="111"/>
       <c r="B42" s="91"/>
       <c r="C42" s="92"/>
       <c r="D42" s="25"/>
@@ -5573,11 +5614,11 @@
       <c r="X42" s="101"/>
     </row>
     <row r="43" spans="1:24">
-      <c r="A43" s="127"/>
-      <c r="B43" s="117">
+      <c r="A43" s="111"/>
+      <c r="B43" s="105">
         <v>11</v>
       </c>
-      <c r="C43" s="120" t="s">
+      <c r="C43" s="108" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="92">
@@ -5645,9 +5686,9 @@
       </c>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44" s="127"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="120"/>
+      <c r="A44" s="111"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="108"/>
       <c r="D44" s="92">
         <v>2010</v>
       </c>
@@ -5713,9 +5754,9 @@
       </c>
     </row>
     <row r="45" spans="1:24">
-      <c r="A45" s="127"/>
-      <c r="B45" s="119"/>
-      <c r="C45" s="120"/>
+      <c r="A45" s="111"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="108"/>
       <c r="D45" s="25">
         <v>2014</v>
       </c>
@@ -5781,7 +5822,7 @@
       </c>
     </row>
     <row r="46" spans="1:24">
-      <c r="A46" s="127"/>
+      <c r="A46" s="111"/>
       <c r="B46" s="91"/>
       <c r="C46" s="92"/>
       <c r="D46" s="25"/>
@@ -5803,11 +5844,11 @@
       <c r="X46" s="101"/>
     </row>
     <row r="47" spans="1:24">
-      <c r="A47" s="127"/>
-      <c r="B47" s="117">
+      <c r="A47" s="111"/>
+      <c r="B47" s="105">
         <v>12</v>
       </c>
-      <c r="C47" s="120" t="s">
+      <c r="C47" s="108" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="92">
@@ -5875,9 +5916,9 @@
       </c>
     </row>
     <row r="48" spans="1:24">
-      <c r="A48" s="127"/>
-      <c r="B48" s="118"/>
-      <c r="C48" s="120"/>
+      <c r="A48" s="111"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="108"/>
       <c r="D48" s="92">
         <v>2010</v>
       </c>
@@ -5943,9 +5984,9 @@
       </c>
     </row>
     <row r="49" spans="1:41">
-      <c r="A49" s="127"/>
-      <c r="B49" s="119"/>
-      <c r="C49" s="120"/>
+      <c r="A49" s="111"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="108"/>
       <c r="D49" s="25">
         <v>2014</v>
       </c>
@@ -6011,7 +6052,7 @@
       </c>
     </row>
     <row r="50" spans="1:41">
-      <c r="A50" s="127"/>
+      <c r="A50" s="111"/>
       <c r="B50" s="91"/>
       <c r="C50" s="92"/>
       <c r="D50" s="25"/>
@@ -6033,11 +6074,11 @@
       <c r="X50" s="101"/>
     </row>
     <row r="51" spans="1:41">
-      <c r="A51" s="127"/>
-      <c r="B51" s="117">
+      <c r="A51" s="111"/>
+      <c r="B51" s="105">
         <v>13</v>
       </c>
-      <c r="C51" s="120" t="s">
+      <c r="C51" s="108" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="92">
@@ -6105,9 +6146,9 @@
       </c>
     </row>
     <row r="52" spans="1:41">
-      <c r="A52" s="127"/>
-      <c r="B52" s="118"/>
-      <c r="C52" s="120"/>
+      <c r="A52" s="111"/>
+      <c r="B52" s="106"/>
+      <c r="C52" s="108"/>
       <c r="D52" s="92">
         <v>2010</v>
       </c>
@@ -6173,9 +6214,9 @@
       </c>
     </row>
     <row r="53" spans="1:41">
-      <c r="A53" s="127"/>
-      <c r="B53" s="119"/>
-      <c r="C53" s="120"/>
+      <c r="A53" s="111"/>
+      <c r="B53" s="107"/>
+      <c r="C53" s="108"/>
       <c r="D53" s="25">
         <v>2014</v>
       </c>
@@ -6241,79 +6282,79 @@
       </c>
     </row>
     <row r="54" spans="1:41">
-      <c r="A54" s="127"/>
+      <c r="A54" s="111"/>
     </row>
     <row r="55" spans="1:41" s="75" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A55" s="127"/>
+      <c r="A55" s="111"/>
       <c r="B55" s="86"/>
-      <c r="C55" s="104" t="s">
+      <c r="C55" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="104"/>
-      <c r="E55" s="104"/>
-      <c r="F55" s="104" t="s">
+      <c r="D55" s="120"/>
+      <c r="E55" s="120"/>
+      <c r="F55" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="104"/>
-      <c r="H55" s="104"/>
-      <c r="I55" s="104" t="s">
+      <c r="G55" s="120"/>
+      <c r="H55" s="120"/>
+      <c r="I55" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="J55" s="104"/>
-      <c r="K55" s="104"/>
-      <c r="L55" s="104" t="s">
+      <c r="J55" s="120"/>
+      <c r="K55" s="120"/>
+      <c r="L55" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="M55" s="104"/>
-      <c r="N55" s="104"/>
-      <c r="O55" s="104" t="s">
+      <c r="M55" s="120"/>
+      <c r="N55" s="120"/>
+      <c r="O55" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="P55" s="104"/>
-      <c r="Q55" s="104"/>
-      <c r="R55" s="112" t="s">
+      <c r="P55" s="120"/>
+      <c r="Q55" s="120"/>
+      <c r="R55" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="S55" s="113"/>
-      <c r="T55" s="114"/>
-      <c r="U55" s="104" t="s">
+      <c r="S55" s="118"/>
+      <c r="T55" s="119"/>
+      <c r="U55" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="V55" s="104"/>
-      <c r="W55" s="104"/>
-      <c r="X55" s="112" t="s">
+      <c r="V55" s="120"/>
+      <c r="W55" s="120"/>
+      <c r="X55" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="Y55" s="113"/>
-      <c r="Z55" s="114"/>
-      <c r="AA55" s="104" t="s">
+      <c r="Y55" s="118"/>
+      <c r="Z55" s="119"/>
+      <c r="AA55" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="AB55" s="104"/>
-      <c r="AC55" s="104"/>
-      <c r="AD55" s="104" t="s">
+      <c r="AB55" s="120"/>
+      <c r="AC55" s="120"/>
+      <c r="AD55" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="AE55" s="104"/>
-      <c r="AF55" s="104"/>
-      <c r="AG55" s="104" t="s">
+      <c r="AE55" s="120"/>
+      <c r="AF55" s="120"/>
+      <c r="AG55" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="AH55" s="104"/>
-      <c r="AI55" s="104"/>
-      <c r="AJ55" s="104" t="s">
+      <c r="AH55" s="120"/>
+      <c r="AI55" s="120"/>
+      <c r="AJ55" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="AK55" s="104"/>
-      <c r="AL55" s="104"/>
-      <c r="AM55" s="104" t="s">
+      <c r="AK55" s="120"/>
+      <c r="AL55" s="120"/>
+      <c r="AM55" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="AN55" s="104"/>
-      <c r="AO55" s="104"/>
+      <c r="AN55" s="120"/>
+      <c r="AO55" s="120"/>
     </row>
     <row r="56" spans="1:41" s="75" customFormat="1" ht="70">
-      <c r="A56" s="128"/>
+      <c r="A56" s="112"/>
       <c r="B56" s="86"/>
       <c r="C56" s="86" t="s">
         <v>72</v>
@@ -6554,10 +6595,10 @@
       </c>
     </row>
     <row r="58" spans="1:41" s="79" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A58" s="115" t="s">
+      <c r="A58" s="121" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="116"/>
+      <c r="B58" s="122"/>
       <c r="C58" s="79">
         <v>2006</v>
       </c>
@@ -6594,10 +6635,10 @@
       <c r="Y58" s="100"/>
     </row>
     <row r="59" spans="1:41" ht="16" thickTop="1">
-      <c r="A59" s="109" t="s">
+      <c r="A59" s="123" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="109"/>
+      <c r="B59" s="123"/>
       <c r="C59">
         <f xml:space="preserve"> C57/115</f>
         <v>3.4782608695652174E-2</v>
@@ -6756,10 +6797,10 @@
       </c>
     </row>
     <row r="60" spans="1:41">
-      <c r="A60" s="110" t="s">
+      <c r="A60" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="110"/>
+      <c r="B60" s="124"/>
       <c r="C60">
         <f xml:space="preserve"> C59*72</f>
         <v>2.5043478260869567</v>
@@ -6918,10 +6959,10 @@
       </c>
     </row>
     <row r="61" spans="1:41" s="80" customFormat="1">
-      <c r="A61" s="111" t="s">
+      <c r="A61" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="B61" s="111"/>
+      <c r="B61" s="125"/>
       <c r="C61" s="80">
         <f xml:space="preserve"> 72-C60</f>
         <v>69.495652173913044</v>
@@ -7231,77 +7272,77 @@
       <c r="X66" s="85"/>
     </row>
     <row r="67" spans="1:41">
-      <c r="C67" s="104" t="s">
+      <c r="C67" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="D67" s="104"/>
-      <c r="E67" s="104"/>
-      <c r="F67" s="112" t="s">
+      <c r="D67" s="120"/>
+      <c r="E67" s="120"/>
+      <c r="F67" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="G67" s="113"/>
-      <c r="H67" s="114"/>
-      <c r="I67" s="104" t="s">
+      <c r="G67" s="118"/>
+      <c r="H67" s="119"/>
+      <c r="I67" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="J67" s="104"/>
-      <c r="K67" s="104"/>
-      <c r="L67" s="104" t="s">
+      <c r="J67" s="120"/>
+      <c r="K67" s="120"/>
+      <c r="L67" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="M67" s="104"/>
-      <c r="N67" s="104"/>
-      <c r="O67" s="104" t="s">
+      <c r="M67" s="120"/>
+      <c r="N67" s="120"/>
+      <c r="O67" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="P67" s="104"/>
-      <c r="Q67" s="104"/>
-      <c r="R67" s="112" t="s">
+      <c r="P67" s="120"/>
+      <c r="Q67" s="120"/>
+      <c r="R67" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="S67" s="113"/>
-      <c r="T67" s="114"/>
-      <c r="U67" s="104" t="s">
+      <c r="S67" s="118"/>
+      <c r="T67" s="119"/>
+      <c r="U67" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="V67" s="104"/>
-      <c r="W67" s="104"/>
-      <c r="X67" s="104" t="s">
+      <c r="V67" s="120"/>
+      <c r="W67" s="120"/>
+      <c r="X67" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="Y67" s="104"/>
-      <c r="Z67" s="104"/>
-      <c r="AA67" s="104" t="s">
+      <c r="Y67" s="120"/>
+      <c r="Z67" s="120"/>
+      <c r="AA67" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="AB67" s="104"/>
-      <c r="AC67" s="104"/>
-      <c r="AD67" s="104" t="s">
+      <c r="AB67" s="120"/>
+      <c r="AC67" s="120"/>
+      <c r="AD67" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="AE67" s="104"/>
-      <c r="AF67" s="104"/>
-      <c r="AG67" s="104" t="s">
+      <c r="AE67" s="120"/>
+      <c r="AF67" s="120"/>
+      <c r="AG67" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="AH67" s="104"/>
-      <c r="AI67" s="104"/>
-      <c r="AJ67" s="104" t="s">
+      <c r="AH67" s="120"/>
+      <c r="AI67" s="120"/>
+      <c r="AJ67" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="AK67" s="104"/>
-      <c r="AL67" s="104"/>
-      <c r="AM67" s="104" t="s">
+      <c r="AK67" s="120"/>
+      <c r="AL67" s="120"/>
+      <c r="AM67" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="AN67" s="104"/>
-      <c r="AO67" s="104"/>
+      <c r="AN67" s="120"/>
+      <c r="AO67" s="120"/>
     </row>
     <row r="68" spans="1:41" ht="70">
-      <c r="A68" s="105" t="s">
+      <c r="A68" s="126" t="s">
         <v>128</v>
       </c>
-      <c r="B68" s="106"/>
+      <c r="B68" s="127"/>
       <c r="C68" s="86" t="s">
         <v>99</v>
       </c>
@@ -7421,8 +7462,8 @@
       </c>
     </row>
     <row r="69" spans="1:41" ht="16" thickBot="1">
-      <c r="A69" s="107"/>
-      <c r="B69" s="108"/>
+      <c r="A69" s="128"/>
+      <c r="B69" s="129"/>
       <c r="C69" s="86">
         <v>23</v>
       </c>
@@ -7542,10 +7583,10 @@
       </c>
     </row>
     <row r="70" spans="1:41" ht="16" thickTop="1">
-      <c r="A70" s="109" t="s">
+      <c r="A70" s="123" t="s">
         <v>125</v>
       </c>
-      <c r="B70" s="109"/>
+      <c r="B70" s="123"/>
       <c r="C70">
         <f xml:space="preserve"> C69/115</f>
         <v>0.2</v>
@@ -7704,10 +7745,10 @@
       </c>
     </row>
     <row r="71" spans="1:41">
-      <c r="A71" s="110" t="s">
+      <c r="A71" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="B71" s="110"/>
+      <c r="B71" s="124"/>
       <c r="C71">
         <f xml:space="preserve"> C70*65</f>
         <v>13</v>
@@ -7866,10 +7907,10 @@
       </c>
     </row>
     <row r="72" spans="1:41">
-      <c r="A72" s="111" t="s">
+      <c r="A72" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="B72" s="111"/>
+      <c r="B72" s="125"/>
       <c r="C72" s="80">
         <f xml:space="preserve"> 65-C71</f>
         <v>52</v>
@@ -8034,6 +8075,58 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="AJ67:AL67"/>
+    <mergeCell ref="AM67:AO67"/>
+    <mergeCell ref="A68:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="AD67:AF67"/>
+    <mergeCell ref="AG67:AI67"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="R67:T67"/>
+    <mergeCell ref="U67:W67"/>
+    <mergeCell ref="X67:Z67"/>
+    <mergeCell ref="AA67:AC67"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="AM55:AO55"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="U55:W55"/>
+    <mergeCell ref="X55:Z55"/>
+    <mergeCell ref="AA55:AC55"/>
+    <mergeCell ref="AD55:AF55"/>
+    <mergeCell ref="AG55:AI55"/>
+    <mergeCell ref="AJ55:AL55"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="O55:Q55"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="C27:C29"/>
@@ -8050,59 +8143,8 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="AM55:AO55"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="U55:W55"/>
-    <mergeCell ref="X55:Z55"/>
-    <mergeCell ref="AA55:AC55"/>
-    <mergeCell ref="AD55:AF55"/>
-    <mergeCell ref="AG55:AI55"/>
-    <mergeCell ref="AJ55:AL55"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="O55:Q55"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="R67:T67"/>
-    <mergeCell ref="U67:W67"/>
-    <mergeCell ref="X67:Z67"/>
-    <mergeCell ref="AA67:AC67"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="AJ67:AL67"/>
-    <mergeCell ref="AM67:AO67"/>
-    <mergeCell ref="A68:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="AD67:AF67"/>
-    <mergeCell ref="AG67:AI67"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
@@ -8119,7 +8161,7 @@
   <dimension ref="A1:AO70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:L5"/>
+      <selection activeCell="T1" sqref="T1:X41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8145,37 +8187,37 @@
     <row r="1" spans="1:24" ht="34" customHeight="1">
       <c r="A1" s="57"/>
       <c r="B1" s="57"/>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="E1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="129" t="s">
+      <c r="F1" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="124" t="s">
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="125" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="124" t="s">
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
       <c r="T1" s="71" t="s">
         <v>92</v>
       </c>
@@ -8188,16 +8230,16 @@
       <c r="W1" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="X1" s="120" t="s">
+      <c r="X1" s="108" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="144">
       <c r="A2" s="57"/>
       <c r="B2" s="57"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -8252,16 +8294,16 @@
       <c r="W2" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="X2" s="120"/>
+      <c r="X2" s="108"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="117">
-        <v>1</v>
-      </c>
-      <c r="C3" s="120" t="s">
+      <c r="B3" s="105">
+        <v>1</v>
+      </c>
+      <c r="C3" s="108" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="54">
@@ -8329,9 +8371,9 @@
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="127"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="120"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="108"/>
       <c r="D4" s="54">
         <v>2010</v>
       </c>
@@ -8397,9 +8439,9 @@
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="127"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="120"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="108"/>
       <c r="D5" s="25">
         <v>2014</v>
       </c>
@@ -8465,11 +8507,11 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1">
-      <c r="A6" s="127"/>
-      <c r="B6" s="117">
+      <c r="A6" s="111"/>
+      <c r="B6" s="105">
         <v>2</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="108" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="54">
@@ -8537,9 +8579,9 @@
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="127"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="120"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="108"/>
       <c r="D7" s="54">
         <v>2010</v>
       </c>
@@ -8605,9 +8647,9 @@
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="127"/>
-      <c r="B8" s="119"/>
-      <c r="C8" s="120"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="108"/>
       <c r="D8" s="25">
         <v>2014</v>
       </c>
@@ -8673,11 +8715,11 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A9" s="127"/>
-      <c r="B9" s="117">
+      <c r="A9" s="111"/>
+      <c r="B9" s="105">
         <v>3</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="108" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="54">
@@ -8745,9 +8787,9 @@
       </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="127"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="120"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="108"/>
       <c r="D10" s="54">
         <v>2010</v>
       </c>
@@ -8813,9 +8855,9 @@
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="127"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="120"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="25">
         <v>2014</v>
       </c>
@@ -8881,11 +8923,11 @@
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="127"/>
-      <c r="B12" s="117">
+      <c r="A12" s="111"/>
+      <c r="B12" s="105">
         <v>4</v>
       </c>
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="108" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="54">
@@ -8953,9 +8995,9 @@
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="127"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="120"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="108"/>
       <c r="D13" s="54">
         <v>2010</v>
       </c>
@@ -9021,9 +9063,9 @@
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="127"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="120"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="108"/>
       <c r="D14" s="25">
         <v>2014</v>
       </c>
@@ -9089,11 +9131,11 @@
       </c>
     </row>
     <row r="15" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A15" s="127"/>
-      <c r="B15" s="117">
+      <c r="A15" s="111"/>
+      <c r="B15" s="105">
         <v>5</v>
       </c>
-      <c r="C15" s="120" t="s">
+      <c r="C15" s="108" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="54">
@@ -9161,9 +9203,9 @@
       </c>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="127"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="120"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="108"/>
       <c r="D16" s="54">
         <v>2010</v>
       </c>
@@ -9229,9 +9271,9 @@
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="127"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="120"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="25">
         <v>2014</v>
       </c>
@@ -9297,11 +9339,11 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A18" s="127"/>
-      <c r="B18" s="117">
+      <c r="A18" s="111"/>
+      <c r="B18" s="105">
         <v>6</v>
       </c>
-      <c r="C18" s="120" t="s">
+      <c r="C18" s="108" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="54">
@@ -9369,9 +9411,9 @@
       </c>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="127"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="120"/>
+      <c r="A19" s="111"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="108"/>
       <c r="D19" s="54">
         <v>2010</v>
       </c>
@@ -9437,9 +9479,9 @@
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="127"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="120"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="108"/>
       <c r="D20" s="25">
         <v>2014</v>
       </c>
@@ -9505,11 +9547,11 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A21" s="127"/>
-      <c r="B21" s="117">
+      <c r="A21" s="111"/>
+      <c r="B21" s="105">
         <v>7</v>
       </c>
-      <c r="C21" s="120" t="s">
+      <c r="C21" s="108" t="s">
         <v>70</v>
       </c>
       <c r="D21" s="54">
@@ -9577,9 +9619,9 @@
       </c>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="127"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="120"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="108"/>
       <c r="D22" s="54">
         <v>2010</v>
       </c>
@@ -9645,9 +9687,9 @@
       </c>
     </row>
     <row r="23" spans="1:24">
-      <c r="A23" s="127"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="120"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="25">
         <v>2014</v>
       </c>
@@ -9713,11 +9755,11 @@
       </c>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="127"/>
-      <c r="B24" s="117">
+      <c r="A24" s="111"/>
+      <c r="B24" s="105">
         <v>8</v>
       </c>
-      <c r="C24" s="121" t="s">
+      <c r="C24" s="114" t="s">
         <v>54</v>
       </c>
       <c r="D24" s="54">
@@ -9785,9 +9827,9 @@
       </c>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="127"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="122"/>
+      <c r="A25" s="111"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="115"/>
       <c r="D25" s="54">
         <v>2010</v>
       </c>
@@ -9853,9 +9895,9 @@
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="127"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="123"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="116"/>
       <c r="D26" s="25">
         <v>2014</v>
       </c>
@@ -9921,11 +9963,11 @@
       </c>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="127"/>
-      <c r="B27" s="117">
+      <c r="A27" s="111"/>
+      <c r="B27" s="105">
         <v>9</v>
       </c>
-      <c r="C27" s="120" t="s">
+      <c r="C27" s="108" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="54">
@@ -9993,9 +10035,9 @@
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="127"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="120"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="108"/>
       <c r="D28" s="54">
         <v>2010</v>
       </c>
@@ -10061,9 +10103,9 @@
       </c>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="127"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="120"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="108"/>
       <c r="D29" s="25">
         <v>2014</v>
       </c>
@@ -10129,11 +10171,11 @@
       </c>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="127"/>
-      <c r="B30" s="117">
+      <c r="A30" s="111"/>
+      <c r="B30" s="105">
         <v>10</v>
       </c>
-      <c r="C30" s="120" t="s">
+      <c r="C30" s="108" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="54">
@@ -10201,9 +10243,9 @@
       </c>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="127"/>
-      <c r="B31" s="118"/>
-      <c r="C31" s="120"/>
+      <c r="A31" s="111"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="108"/>
       <c r="D31" s="54">
         <v>2010</v>
       </c>
@@ -10269,9 +10311,9 @@
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="127"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="120"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="108"/>
       <c r="D32" s="25">
         <v>2014</v>
       </c>
@@ -10337,11 +10379,11 @@
       </c>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" s="127"/>
-      <c r="B33" s="117">
+      <c r="A33" s="111"/>
+      <c r="B33" s="105">
         <v>11</v>
       </c>
-      <c r="C33" s="120" t="s">
+      <c r="C33" s="108" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="54">
@@ -10409,9 +10451,9 @@
       </c>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" s="127"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="120"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="108"/>
       <c r="D34" s="54">
         <v>2010</v>
       </c>
@@ -10477,9 +10519,9 @@
       </c>
     </row>
     <row r="35" spans="1:41">
-      <c r="A35" s="127"/>
-      <c r="B35" s="119"/>
-      <c r="C35" s="120"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="108"/>
       <c r="D35" s="25">
         <v>2014</v>
       </c>
@@ -10545,11 +10587,11 @@
       </c>
     </row>
     <row r="36" spans="1:41">
-      <c r="A36" s="127"/>
-      <c r="B36" s="117">
+      <c r="A36" s="111"/>
+      <c r="B36" s="105">
         <v>12</v>
       </c>
-      <c r="C36" s="120" t="s">
+      <c r="C36" s="108" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="54">
@@ -10617,9 +10659,9 @@
       </c>
     </row>
     <row r="37" spans="1:41">
-      <c r="A37" s="127"/>
-      <c r="B37" s="118"/>
-      <c r="C37" s="120"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="108"/>
       <c r="D37" s="54">
         <v>2010</v>
       </c>
@@ -10685,9 +10727,9 @@
       </c>
     </row>
     <row r="38" spans="1:41">
-      <c r="A38" s="127"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="120"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="108"/>
       <c r="D38" s="25">
         <v>2014</v>
       </c>
@@ -10753,11 +10795,11 @@
       </c>
     </row>
     <row r="39" spans="1:41">
-      <c r="A39" s="127"/>
-      <c r="B39" s="117">
+      <c r="A39" s="111"/>
+      <c r="B39" s="105">
         <v>13</v>
       </c>
-      <c r="C39" s="120" t="s">
+      <c r="C39" s="108" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="54">
@@ -10825,9 +10867,9 @@
       </c>
     </row>
     <row r="40" spans="1:41">
-      <c r="A40" s="127"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="120"/>
+      <c r="A40" s="111"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="108"/>
       <c r="D40" s="54">
         <v>2010</v>
       </c>
@@ -10893,9 +10935,9 @@
       </c>
     </row>
     <row r="41" spans="1:41">
-      <c r="A41" s="127"/>
-      <c r="B41" s="119"/>
-      <c r="C41" s="120"/>
+      <c r="A41" s="111"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="108"/>
       <c r="D41" s="25">
         <v>2014</v>
       </c>
@@ -10961,79 +11003,79 @@
       </c>
     </row>
     <row r="42" spans="1:41">
-      <c r="A42" s="127"/>
+      <c r="A42" s="111"/>
     </row>
     <row r="43" spans="1:41" s="75" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A43" s="127"/>
+      <c r="A43" s="111"/>
       <c r="B43" s="73"/>
-      <c r="C43" s="104" t="s">
+      <c r="C43" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104" t="s">
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="104"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="104" t="s">
+      <c r="G43" s="120"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="J43" s="104"/>
-      <c r="K43" s="104"/>
-      <c r="L43" s="104" t="s">
+      <c r="J43" s="120"/>
+      <c r="K43" s="120"/>
+      <c r="L43" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="M43" s="104"/>
-      <c r="N43" s="104"/>
-      <c r="O43" s="104" t="s">
+      <c r="M43" s="120"/>
+      <c r="N43" s="120"/>
+      <c r="O43" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="P43" s="104"/>
-      <c r="Q43" s="104"/>
-      <c r="R43" s="112" t="s">
+      <c r="P43" s="120"/>
+      <c r="Q43" s="120"/>
+      <c r="R43" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="S43" s="113"/>
-      <c r="T43" s="114"/>
-      <c r="U43" s="104" t="s">
+      <c r="S43" s="118"/>
+      <c r="T43" s="119"/>
+      <c r="U43" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="V43" s="104"/>
-      <c r="W43" s="104"/>
-      <c r="X43" s="112" t="s">
+      <c r="V43" s="120"/>
+      <c r="W43" s="120"/>
+      <c r="X43" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="Y43" s="113"/>
-      <c r="Z43" s="114"/>
-      <c r="AA43" s="104" t="s">
+      <c r="Y43" s="118"/>
+      <c r="Z43" s="119"/>
+      <c r="AA43" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="AB43" s="104"/>
-      <c r="AC43" s="104"/>
-      <c r="AD43" s="104" t="s">
+      <c r="AB43" s="120"/>
+      <c r="AC43" s="120"/>
+      <c r="AD43" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="AE43" s="104"/>
-      <c r="AF43" s="104"/>
-      <c r="AG43" s="104" t="s">
+      <c r="AE43" s="120"/>
+      <c r="AF43" s="120"/>
+      <c r="AG43" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="AH43" s="104"/>
-      <c r="AI43" s="104"/>
-      <c r="AJ43" s="104" t="s">
+      <c r="AH43" s="120"/>
+      <c r="AI43" s="120"/>
+      <c r="AJ43" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="AK43" s="104"/>
-      <c r="AL43" s="104"/>
-      <c r="AM43" s="104" t="s">
+      <c r="AK43" s="120"/>
+      <c r="AL43" s="120"/>
+      <c r="AM43" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="AN43" s="104"/>
-      <c r="AO43" s="104"/>
+      <c r="AN43" s="120"/>
+      <c r="AO43" s="120"/>
     </row>
     <row r="44" spans="1:41" s="75" customFormat="1" ht="70">
-      <c r="A44" s="128"/>
+      <c r="A44" s="112"/>
       <c r="B44" s="73"/>
       <c r="C44" s="73" t="s">
         <v>72</v>
@@ -11274,10 +11316,10 @@
       </c>
     </row>
     <row r="46" spans="1:41" s="79" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A46" s="115" t="s">
+      <c r="A46" s="121" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="116"/>
+      <c r="B46" s="122"/>
       <c r="C46" s="79">
         <v>2006</v>
       </c>
@@ -11314,10 +11356,10 @@
       <c r="Y46" s="100"/>
     </row>
     <row r="47" spans="1:41" ht="16" thickTop="1">
-      <c r="A47" s="109" t="s">
+      <c r="A47" s="123" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="109"/>
+      <c r="B47" s="123"/>
       <c r="C47">
         <f xml:space="preserve"> C45/115</f>
         <v>3.4782608695652174E-2</v>
@@ -11476,10 +11518,10 @@
       </c>
     </row>
     <row r="48" spans="1:41">
-      <c r="A48" s="110" t="s">
+      <c r="A48" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="110"/>
+      <c r="B48" s="124"/>
       <c r="C48">
         <f xml:space="preserve"> C47*72</f>
         <v>2.5043478260869567</v>
@@ -11638,10 +11680,10 @@
       </c>
     </row>
     <row r="49" spans="1:41" s="80" customFormat="1">
-      <c r="A49" s="111" t="s">
+      <c r="A49" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="B49" s="111"/>
+      <c r="B49" s="125"/>
       <c r="C49" s="80">
         <f xml:space="preserve"> 72-C48</f>
         <v>69.495652173913044</v>
@@ -11951,77 +11993,77 @@
       <c r="X54" s="85"/>
     </row>
     <row r="55" spans="1:41">
-      <c r="C55" s="104" t="s">
+      <c r="C55" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="104"/>
-      <c r="E55" s="104"/>
-      <c r="F55" s="112" t="s">
+      <c r="D55" s="120"/>
+      <c r="E55" s="120"/>
+      <c r="F55" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="113"/>
-      <c r="H55" s="114"/>
-      <c r="I55" s="104" t="s">
+      <c r="G55" s="118"/>
+      <c r="H55" s="119"/>
+      <c r="I55" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="J55" s="104"/>
-      <c r="K55" s="104"/>
-      <c r="L55" s="104" t="s">
+      <c r="J55" s="120"/>
+      <c r="K55" s="120"/>
+      <c r="L55" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="M55" s="104"/>
-      <c r="N55" s="104"/>
-      <c r="O55" s="104" t="s">
+      <c r="M55" s="120"/>
+      <c r="N55" s="120"/>
+      <c r="O55" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="P55" s="104"/>
-      <c r="Q55" s="104"/>
-      <c r="R55" s="112" t="s">
+      <c r="P55" s="120"/>
+      <c r="Q55" s="120"/>
+      <c r="R55" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="S55" s="113"/>
-      <c r="T55" s="114"/>
-      <c r="U55" s="104" t="s">
+      <c r="S55" s="118"/>
+      <c r="T55" s="119"/>
+      <c r="U55" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="V55" s="104"/>
-      <c r="W55" s="104"/>
-      <c r="X55" s="104" t="s">
+      <c r="V55" s="120"/>
+      <c r="W55" s="120"/>
+      <c r="X55" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="Y55" s="104"/>
-      <c r="Z55" s="104"/>
-      <c r="AA55" s="104" t="s">
+      <c r="Y55" s="120"/>
+      <c r="Z55" s="120"/>
+      <c r="AA55" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="AB55" s="104"/>
-      <c r="AC55" s="104"/>
-      <c r="AD55" s="104" t="s">
+      <c r="AB55" s="120"/>
+      <c r="AC55" s="120"/>
+      <c r="AD55" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="AE55" s="104"/>
-      <c r="AF55" s="104"/>
-      <c r="AG55" s="104" t="s">
+      <c r="AE55" s="120"/>
+      <c r="AF55" s="120"/>
+      <c r="AG55" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="AH55" s="104"/>
-      <c r="AI55" s="104"/>
-      <c r="AJ55" s="104" t="s">
+      <c r="AH55" s="120"/>
+      <c r="AI55" s="120"/>
+      <c r="AJ55" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="AK55" s="104"/>
-      <c r="AL55" s="104"/>
-      <c r="AM55" s="104" t="s">
+      <c r="AK55" s="120"/>
+      <c r="AL55" s="120"/>
+      <c r="AM55" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="AN55" s="104"/>
-      <c r="AO55" s="104"/>
+      <c r="AN55" s="120"/>
+      <c r="AO55" s="120"/>
     </row>
     <row r="56" spans="1:41" ht="70">
-      <c r="A56" s="105" t="s">
+      <c r="A56" s="126" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="106"/>
+      <c r="B56" s="127"/>
       <c r="C56" s="74" t="s">
         <v>99</v>
       </c>
@@ -12141,8 +12183,8 @@
       </c>
     </row>
     <row r="57" spans="1:41" ht="16" thickBot="1">
-      <c r="A57" s="107"/>
-      <c r="B57" s="108"/>
+      <c r="A57" s="128"/>
+      <c r="B57" s="129"/>
       <c r="C57" s="74">
         <v>23</v>
       </c>
@@ -12262,10 +12304,10 @@
       </c>
     </row>
     <row r="58" spans="1:41" ht="16" thickTop="1">
-      <c r="A58" s="109" t="s">
+      <c r="A58" s="123" t="s">
         <v>125</v>
       </c>
-      <c r="B58" s="109"/>
+      <c r="B58" s="123"/>
       <c r="C58">
         <f xml:space="preserve"> C57/115</f>
         <v>0.2</v>
@@ -12424,10 +12466,10 @@
       </c>
     </row>
     <row r="59" spans="1:41">
-      <c r="A59" s="110" t="s">
+      <c r="A59" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="110"/>
+      <c r="B59" s="124"/>
       <c r="C59">
         <f xml:space="preserve"> C58*65</f>
         <v>13</v>
@@ -12586,10 +12628,10 @@
       </c>
     </row>
     <row r="60" spans="1:41">
-      <c r="A60" s="111" t="s">
+      <c r="A60" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="111"/>
+      <c r="B60" s="125"/>
       <c r="C60" s="80">
         <f xml:space="preserve"> 65-C59</f>
         <v>52</v>
@@ -12754,16 +12796,49 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="AG55:AI55"/>
+    <mergeCell ref="AJ55:AL55"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="O55:Q55"/>
+    <mergeCell ref="U55:W55"/>
+    <mergeCell ref="X55:Z55"/>
+    <mergeCell ref="AA55:AC55"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="AM55:AO55"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="AD55:AF55"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="A3:A44"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="AJ43:AL43"/>
+    <mergeCell ref="AM43:AO43"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="AA43:AC43"/>
+    <mergeCell ref="X1:X2"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="E1:E2"/>
@@ -12780,50 +12855,18 @@
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="C12:C14"/>
-    <mergeCell ref="AJ43:AL43"/>
-    <mergeCell ref="AM43:AO43"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="AA43:AC43"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="AM55:AO55"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="AD55:AF55"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="A3:A44"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="AG55:AI55"/>
-    <mergeCell ref="AJ55:AL55"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="O55:Q55"/>
-    <mergeCell ref="U55:W55"/>
-    <mergeCell ref="X55:Z55"/>
-    <mergeCell ref="AA55:AC55"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B30:B32"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <extLst>
@@ -12838,8 +12881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12853,44 +12896,44 @@
     <row r="1" spans="1:25">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="E1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="129" t="s">
+      <c r="F1" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="124" t="s">
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="125" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="124" t="s">
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
     </row>
     <row r="2" spans="1:25" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -12944,7 +12987,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="110" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -13012,7 +13055,7 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="127"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="45" t="s">
         <v>55</v>
       </c>
@@ -13078,7 +13121,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A5" s="127"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="45" t="s">
         <v>57</v>
       </c>
@@ -13144,7 +13187,7 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="127"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="45" t="s">
         <v>58</v>
       </c>
@@ -13210,7 +13253,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A7" s="127"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="45" t="s">
         <v>59</v>
       </c>
@@ -13276,7 +13319,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1">
-      <c r="A8" s="127"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="45" t="s">
         <v>60</v>
       </c>
@@ -13342,7 +13385,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A9" s="127"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="45" t="s">
         <v>61</v>
       </c>
@@ -13408,7 +13451,7 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="127"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="45" t="s">
         <v>62</v>
       </c>
@@ -13474,7 +13517,7 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="127"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="45" t="s">
         <v>56</v>
       </c>
@@ -13540,7 +13583,7 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" s="127"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="45" t="s">
         <v>63</v>
       </c>
@@ -13606,7 +13649,7 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="127"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="45" t="s">
         <v>64</v>
       </c>
@@ -13672,7 +13715,7 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" s="127"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="45" t="s">
         <v>65</v>
       </c>
@@ -13738,7 +13781,7 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="127"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="45" t="s">
         <v>66</v>
       </c>
@@ -14815,6 +14858,7 @@
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:P1"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -14844,44 +14888,44 @@
     <row r="1" spans="1:19">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="E1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="129" t="s">
+      <c r="F1" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="124" t="s">
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="125" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="124" t="s">
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
     </row>
     <row r="2" spans="1:19" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -14926,7 +14970,7 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="110" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="44" t="s">
@@ -14985,7 +15029,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="24">
-      <c r="A4" s="127"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="45" t="s">
         <v>55</v>
       </c>
@@ -15042,7 +15086,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A5" s="127"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="45" t="s">
         <v>57</v>
       </c>
@@ -15099,7 +15143,7 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="127"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="45" t="s">
         <v>58</v>
       </c>
@@ -15156,7 +15200,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A7" s="127"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="45" t="s">
         <v>59</v>
       </c>
@@ -15213,7 +15257,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="24">
-      <c r="A8" s="127"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="45" t="s">
         <v>60</v>
       </c>
@@ -15270,7 +15314,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A9" s="127"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="45" t="s">
         <v>61</v>
       </c>
@@ -15327,7 +15371,7 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="127"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="45" t="s">
         <v>62</v>
       </c>
@@ -15384,7 +15428,7 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="127"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="45" t="s">
         <v>56</v>
       </c>
@@ -15441,7 +15485,7 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="127"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="45" t="s">
         <v>63</v>
       </c>
@@ -15498,7 +15542,7 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="127"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="45" t="s">
         <v>64</v>
       </c>
@@ -15555,7 +15599,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="127"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="45" t="s">
         <v>65</v>
       </c>
@@ -15612,7 +15656,7 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="127"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="45" t="s">
         <v>66</v>
       </c>
@@ -16393,6 +16437,7 @@
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:P1"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -16427,44 +16472,44 @@
     <row r="1" spans="1:19">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="E1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="129" t="s">
+      <c r="F1" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="124" t="s">
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="125" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="124" t="s">
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
     </row>
     <row r="2" spans="1:19" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -16509,7 +16554,7 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="110" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="44" t="s">
@@ -16568,7 +16613,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="24">
-      <c r="A4" s="127"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="45" t="s">
         <v>55</v>
       </c>
@@ -16625,7 +16670,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="24">
-      <c r="A5" s="127"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="45" t="s">
         <v>57</v>
       </c>
@@ -16682,7 +16727,7 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="127"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="45" t="s">
         <v>58</v>
       </c>
@@ -16739,7 +16784,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="24">
-      <c r="A7" s="127"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="45" t="s">
         <v>59</v>
       </c>
@@ -16796,7 +16841,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="24">
-      <c r="A8" s="127"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="45" t="s">
         <v>60</v>
       </c>
@@ -16852,8 +16897,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="24">
-      <c r="A9" s="127"/>
+    <row r="9" spans="1:19">
+      <c r="A9" s="111"/>
       <c r="B9" s="45" t="s">
         <v>61</v>
       </c>
@@ -16910,7 +16955,7 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="127"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="45" t="s">
         <v>62</v>
       </c>
@@ -16967,7 +17012,7 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="127"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="45" t="s">
         <v>56</v>
       </c>
@@ -17024,7 +17069,7 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="127"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="45" t="s">
         <v>63</v>
       </c>
@@ -17081,7 +17126,7 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="127"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="45" t="s">
         <v>64</v>
       </c>
@@ -17138,7 +17183,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="127"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="45" t="s">
         <v>65</v>
       </c>
@@ -17195,7 +17240,7 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="127"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="45" t="s">
         <v>66</v>
       </c>
@@ -17262,6 +17307,7 @@
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:P1"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <extLst>
@@ -17329,158 +17375,158 @@
       <c r="K1" s="130"/>
     </row>
     <row r="2" spans="1:44" ht="20" customHeight="1">
-      <c r="C2" s="117">
-        <v>1</v>
-      </c>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="117">
+      <c r="C2" s="105">
+        <v>1</v>
+      </c>
+      <c r="D2" s="106"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="105">
         <v>2</v>
       </c>
-      <c r="G2" s="118"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="117">
+      <c r="G2" s="106"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="105">
         <v>3</v>
       </c>
-      <c r="J2" s="118"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="117">
+      <c r="J2" s="106"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="105">
         <v>4</v>
       </c>
-      <c r="M2" s="118"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="117">
+      <c r="M2" s="106"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="105">
         <v>5</v>
       </c>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="117">
+      <c r="P2" s="106"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="105">
         <v>6</v>
       </c>
-      <c r="S2" s="118"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="117">
+      <c r="S2" s="106"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="105">
         <v>7</v>
       </c>
-      <c r="V2" s="118"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="117">
+      <c r="V2" s="106"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="105">
         <v>8</v>
       </c>
-      <c r="Y2" s="118"/>
-      <c r="Z2" s="119"/>
-      <c r="AA2" s="117">
+      <c r="Y2" s="106"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="105">
         <v>14</v>
       </c>
-      <c r="AB2" s="118"/>
-      <c r="AC2" s="119"/>
-      <c r="AD2" s="117">
+      <c r="AB2" s="106"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="105">
         <v>9</v>
       </c>
-      <c r="AE2" s="118"/>
-      <c r="AF2" s="119"/>
-      <c r="AG2" s="117">
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="107"/>
+      <c r="AG2" s="105">
         <v>10</v>
       </c>
-      <c r="AH2" s="118"/>
-      <c r="AI2" s="119"/>
-      <c r="AJ2" s="117">
+      <c r="AH2" s="106"/>
+      <c r="AI2" s="107"/>
+      <c r="AJ2" s="105">
         <v>11</v>
       </c>
-      <c r="AK2" s="118"/>
-      <c r="AL2" s="119"/>
-      <c r="AM2" s="117">
+      <c r="AK2" s="106"/>
+      <c r="AL2" s="107"/>
+      <c r="AM2" s="105">
         <v>12</v>
       </c>
-      <c r="AN2" s="118"/>
-      <c r="AO2" s="119"/>
-      <c r="AP2" s="117">
+      <c r="AN2" s="106"/>
+      <c r="AO2" s="107"/>
+      <c r="AP2" s="105">
         <v>13</v>
       </c>
-      <c r="AQ2" s="118"/>
-      <c r="AR2" s="119"/>
+      <c r="AQ2" s="106"/>
+      <c r="AR2" s="107"/>
     </row>
     <row r="3" spans="1:44" s="14" customFormat="1" ht="20" customHeight="1">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120" t="s">
+      <c r="B3" s="108"/>
+      <c r="C3" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120" t="s">
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120" t="s">
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120" t="s">
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120" t="s">
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="120" t="s">
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="120"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="120" t="s">
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="120"/>
-      <c r="W3" s="120"/>
-      <c r="X3" s="120" t="s">
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="120"/>
-      <c r="Z3" s="120"/>
-      <c r="AA3" s="121" t="s">
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="120" t="s">
+      <c r="AB3" s="115"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="120"/>
-      <c r="AG3" s="120" t="s">
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="120"/>
-      <c r="AI3" s="120"/>
-      <c r="AJ3" s="120" t="s">
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="AK3" s="120"/>
-      <c r="AL3" s="120"/>
-      <c r="AM3" s="120" t="s">
+      <c r="AK3" s="108"/>
+      <c r="AL3" s="108"/>
+      <c r="AM3" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="120"/>
-      <c r="AO3" s="120"/>
-      <c r="AP3" s="120" t="s">
+      <c r="AN3" s="108"/>
+      <c r="AO3" s="108"/>
+      <c r="AP3" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="AQ3" s="120"/>
-      <c r="AR3" s="120"/>
+      <c r="AQ3" s="108"/>
+      <c r="AR3" s="108"/>
     </row>
     <row r="4" spans="1:44" s="14" customFormat="1" ht="20" customHeight="1">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="120"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="14">
         <v>2006</v>
       </c>
@@ -17609,10 +17655,10 @@
       </c>
     </row>
     <row r="5" spans="1:44" s="14" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="120"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="14">
         <v>4</v>
       </c>
@@ -17741,7 +17787,7 @@
       </c>
     </row>
     <row r="6" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A6" s="129" t="s">
+      <c r="A6" s="113" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -17875,7 +17921,7 @@
       </c>
     </row>
     <row r="7" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="129"/>
+      <c r="A7" s="113"/>
       <c r="B7" s="16" t="s">
         <v>34</v>
       </c>
@@ -18007,7 +18053,7 @@
       </c>
     </row>
     <row r="8" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A8" s="129"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="16" t="s">
         <v>35</v>
       </c>
@@ -18139,7 +18185,7 @@
       </c>
     </row>
     <row r="9" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A9" s="129"/>
+      <c r="A9" s="113"/>
       <c r="B9" s="15" t="s">
         <v>51</v>
       </c>
@@ -18271,7 +18317,7 @@
       </c>
     </row>
     <row r="10" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A10" s="129"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="16" t="s">
         <v>36</v>
       </c>
@@ -18403,7 +18449,7 @@
       </c>
     </row>
     <row r="11" spans="1:44" ht="20" customHeight="1">
-      <c r="A11" s="124" t="s">
+      <c r="A11" s="109" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -18537,7 +18583,7 @@
       </c>
     </row>
     <row r="12" spans="1:44" ht="20" customHeight="1">
-      <c r="A12" s="124"/>
+      <c r="A12" s="109"/>
       <c r="B12" s="6" t="s">
         <v>39</v>
       </c>
@@ -18669,7 +18715,7 @@
       </c>
     </row>
     <row r="13" spans="1:44" ht="20" customHeight="1">
-      <c r="A13" s="124"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="6" t="s">
         <v>40</v>
       </c>
@@ -18801,7 +18847,7 @@
       </c>
     </row>
     <row r="14" spans="1:44" ht="20" customHeight="1">
-      <c r="A14" s="124"/>
+      <c r="A14" s="109"/>
       <c r="B14" s="6" t="s">
         <v>41</v>
       </c>
@@ -18933,7 +18979,7 @@
       </c>
     </row>
     <row r="15" spans="1:44" s="11" customFormat="1" ht="20" customHeight="1">
-      <c r="A15" s="125" t="s">
+      <c r="A15" s="104" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -19067,7 +19113,7 @@
       </c>
     </row>
     <row r="16" spans="1:44" s="11" customFormat="1" ht="20" customHeight="1">
-      <c r="A16" s="125"/>
+      <c r="A16" s="104"/>
       <c r="B16" s="10" t="s">
         <v>43</v>
       </c>
@@ -19199,7 +19245,7 @@
       </c>
     </row>
     <row r="17" spans="1:44" ht="20" customHeight="1">
-      <c r="A17" s="124" t="s">
+      <c r="A17" s="109" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -19333,7 +19379,7 @@
       </c>
     </row>
     <row r="18" spans="1:44" ht="20" customHeight="1">
-      <c r="A18" s="124"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="6" t="s">
         <v>46</v>
       </c>
@@ -19465,7 +19511,7 @@
       </c>
     </row>
     <row r="19" spans="1:44" ht="20" customHeight="1">
-      <c r="A19" s="124"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="6" t="s">
         <v>47</v>
       </c>
@@ -20123,6 +20169,29 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AJ2:AL2"/>
@@ -20136,29 +20205,6 @@
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="AD2:AF2"/>
     <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20179,7 +20225,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.83203125" style="2" customWidth="1"/>
     <col min="2" max="4" width="10.83203125" style="2"/>
@@ -20188,7 +20234,7 @@
     <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="60">
+    <row r="1" spans="1:17" ht="38">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -20370,44 +20416,44 @@
     <row r="1" spans="1:19">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="E1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="129" t="s">
+      <c r="F1" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="124" t="s">
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="125" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="124" t="s">
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
     </row>
     <row r="2" spans="1:19" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -20452,13 +20498,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="117">
-        <v>1</v>
-      </c>
-      <c r="C3" s="120" t="s">
+      <c r="B3" s="105">
+        <v>1</v>
+      </c>
+      <c r="C3" s="108" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="14">
@@ -20511,9 +20557,9 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="127"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="120"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="108"/>
       <c r="D4" s="14">
         <v>2010</v>
       </c>
@@ -20564,9 +20610,9 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="127"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="120"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="108"/>
       <c r="D5" s="25">
         <v>2014</v>
       </c>
@@ -20617,11 +20663,11 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="127"/>
-      <c r="B6" s="117">
+      <c r="A6" s="111"/>
+      <c r="B6" s="105">
         <v>2</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="108" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="14">
@@ -20674,9 +20720,9 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="127"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="120"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="108"/>
       <c r="D7" s="14">
         <v>2010</v>
       </c>
@@ -20727,9 +20773,9 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="127"/>
-      <c r="B8" s="119"/>
-      <c r="C8" s="120"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="108"/>
       <c r="D8" s="25">
         <v>2014</v>
       </c>
@@ -20780,11 +20826,11 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="127"/>
-      <c r="B9" s="117">
+      <c r="A9" s="111"/>
+      <c r="B9" s="105">
         <v>3</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="108" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="14">
@@ -20837,9 +20883,9 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="127"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="120"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="108"/>
       <c r="D10" s="14">
         <v>2010</v>
       </c>
@@ -20890,9 +20936,9 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="127"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="120"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="25">
         <v>2014</v>
       </c>
@@ -20943,11 +20989,11 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="127"/>
-      <c r="B12" s="117">
+      <c r="A12" s="111"/>
+      <c r="B12" s="105">
         <v>4</v>
       </c>
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="108" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="14">
@@ -21000,9 +21046,9 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="127"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="120"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="108"/>
       <c r="D13" s="14">
         <v>2010</v>
       </c>
@@ -21053,9 +21099,9 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="127"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="120"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="108"/>
       <c r="D14" s="25">
         <v>2014</v>
       </c>
@@ -21106,11 +21152,11 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="127"/>
-      <c r="B15" s="117">
+      <c r="A15" s="111"/>
+      <c r="B15" s="105">
         <v>5</v>
       </c>
-      <c r="C15" s="120" t="s">
+      <c r="C15" s="108" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="14">
@@ -21163,9 +21209,9 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="127"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="120"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="108"/>
       <c r="D16" s="14">
         <v>2010</v>
       </c>
@@ -21216,9 +21262,9 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="127"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="120"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="25">
         <v>2014</v>
       </c>
@@ -21269,11 +21315,11 @@
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="127"/>
-      <c r="B18" s="117">
+      <c r="A18" s="111"/>
+      <c r="B18" s="105">
         <v>6</v>
       </c>
-      <c r="C18" s="120" t="s">
+      <c r="C18" s="108" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="14">
@@ -21326,9 +21372,9 @@
       </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="127"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="120"/>
+      <c r="A19" s="111"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="108"/>
       <c r="D19" s="14">
         <v>2010</v>
       </c>
@@ -21379,9 +21425,9 @@
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="127"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="120"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="108"/>
       <c r="D20" s="25">
         <v>2014</v>
       </c>
@@ -21432,11 +21478,11 @@
       </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="127"/>
-      <c r="B21" s="117">
+      <c r="A21" s="111"/>
+      <c r="B21" s="105">
         <v>7</v>
       </c>
-      <c r="C21" s="120" t="s">
+      <c r="C21" s="108" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="14">
@@ -21489,9 +21535,9 @@
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="127"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="120"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="108"/>
       <c r="D22" s="14">
         <v>2010</v>
       </c>
@@ -21542,9 +21588,9 @@
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="127"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="120"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="25">
         <v>2014</v>
       </c>
@@ -21595,11 +21641,11 @@
       </c>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="127"/>
-      <c r="B24" s="117">
+      <c r="A24" s="111"/>
+      <c r="B24" s="105">
         <v>8</v>
       </c>
-      <c r="C24" s="120" t="s">
+      <c r="C24" s="108" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="14">
@@ -21652,9 +21698,9 @@
       </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="127"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="120"/>
+      <c r="A25" s="111"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="108"/>
       <c r="D25" s="14">
         <v>2010</v>
       </c>
@@ -21705,9 +21751,9 @@
       </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="127"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="120"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="108"/>
       <c r="D26" s="25">
         <v>2014</v>
       </c>
@@ -21758,11 +21804,11 @@
       </c>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="127"/>
-      <c r="B27" s="117">
+      <c r="A27" s="111"/>
+      <c r="B27" s="105">
         <v>14</v>
       </c>
-      <c r="C27" s="121" t="s">
+      <c r="C27" s="114" t="s">
         <v>54</v>
       </c>
       <c r="D27" s="14">
@@ -21815,9 +21861,9 @@
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="127"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="122"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="115"/>
       <c r="D28" s="14">
         <v>2010</v>
       </c>
@@ -21868,9 +21914,9 @@
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="127"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="123"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="116"/>
       <c r="D29" s="25">
         <v>2014</v>
       </c>
@@ -21921,11 +21967,11 @@
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="127"/>
-      <c r="B30" s="117">
+      <c r="A30" s="111"/>
+      <c r="B30" s="105">
         <v>9</v>
       </c>
-      <c r="C30" s="120" t="s">
+      <c r="C30" s="108" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="14">
@@ -21978,9 +22024,9 @@
       </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="127"/>
-      <c r="B31" s="118"/>
-      <c r="C31" s="120"/>
+      <c r="A31" s="111"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="108"/>
       <c r="D31" s="14">
         <v>2010</v>
       </c>
@@ -22031,9 +22077,9 @@
       </c>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="127"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="120"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="108"/>
       <c r="D32" s="25">
         <v>2014</v>
       </c>
@@ -22084,11 +22130,11 @@
       </c>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" s="127"/>
-      <c r="B33" s="117">
+      <c r="A33" s="111"/>
+      <c r="B33" s="105">
         <v>10</v>
       </c>
-      <c r="C33" s="120" t="s">
+      <c r="C33" s="108" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="14">
@@ -22141,9 +22187,9 @@
       </c>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" s="127"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="120"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="108"/>
       <c r="D34" s="14">
         <v>2010</v>
       </c>
@@ -22194,9 +22240,9 @@
       </c>
     </row>
     <row r="35" spans="1:41">
-      <c r="A35" s="127"/>
-      <c r="B35" s="119"/>
-      <c r="C35" s="120"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="108"/>
       <c r="D35" s="25">
         <v>2014</v>
       </c>
@@ -22247,11 +22293,11 @@
       </c>
     </row>
     <row r="36" spans="1:41">
-      <c r="A36" s="127"/>
-      <c r="B36" s="117">
+      <c r="A36" s="111"/>
+      <c r="B36" s="105">
         <v>11</v>
       </c>
-      <c r="C36" s="120" t="s">
+      <c r="C36" s="108" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="14">
@@ -22304,9 +22350,9 @@
       </c>
     </row>
     <row r="37" spans="1:41">
-      <c r="A37" s="127"/>
-      <c r="B37" s="118"/>
-      <c r="C37" s="120"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="108"/>
       <c r="D37" s="14">
         <v>2010</v>
       </c>
@@ -22357,9 +22403,9 @@
       </c>
     </row>
     <row r="38" spans="1:41">
-      <c r="A38" s="127"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="120"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="108"/>
       <c r="D38" s="25">
         <v>2014</v>
       </c>
@@ -22410,11 +22456,11 @@
       </c>
     </row>
     <row r="39" spans="1:41">
-      <c r="A39" s="127"/>
-      <c r="B39" s="117">
+      <c r="A39" s="111"/>
+      <c r="B39" s="105">
         <v>12</v>
       </c>
-      <c r="C39" s="120" t="s">
+      <c r="C39" s="108" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="14">
@@ -22467,9 +22513,9 @@
       </c>
     </row>
     <row r="40" spans="1:41">
-      <c r="A40" s="127"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="120"/>
+      <c r="A40" s="111"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="108"/>
       <c r="D40" s="14">
         <v>2010</v>
       </c>
@@ -22520,9 +22566,9 @@
       </c>
     </row>
     <row r="41" spans="1:41">
-      <c r="A41" s="127"/>
-      <c r="B41" s="119"/>
-      <c r="C41" s="120"/>
+      <c r="A41" s="111"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="108"/>
       <c r="D41" s="25">
         <v>2014</v>
       </c>
@@ -22573,11 +22619,11 @@
       </c>
     </row>
     <row r="42" spans="1:41">
-      <c r="A42" s="127"/>
-      <c r="B42" s="117">
+      <c r="A42" s="111"/>
+      <c r="B42" s="105">
         <v>13</v>
       </c>
-      <c r="C42" s="120" t="s">
+      <c r="C42" s="108" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="14">
@@ -22630,9 +22676,9 @@
       </c>
     </row>
     <row r="43" spans="1:41">
-      <c r="A43" s="127"/>
-      <c r="B43" s="118"/>
-      <c r="C43" s="120"/>
+      <c r="A43" s="111"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="108"/>
       <c r="D43" s="14">
         <v>2010</v>
       </c>
@@ -22683,9 +22729,9 @@
       </c>
     </row>
     <row r="44" spans="1:41">
-      <c r="A44" s="128"/>
-      <c r="B44" s="119"/>
-      <c r="C44" s="120"/>
+      <c r="A44" s="112"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="108"/>
       <c r="D44" s="25">
         <v>2014</v>
       </c>
@@ -22736,81 +22782,81 @@
       </c>
     </row>
     <row r="46" spans="1:41" ht="15.75" customHeight="1">
-      <c r="A46" s="120" t="s">
+      <c r="A46" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="120"/>
-      <c r="C46" s="120" t="s">
+      <c r="B46" s="108"/>
+      <c r="C46" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="120"/>
-      <c r="E46" s="120"/>
-      <c r="F46" s="120" t="s">
+      <c r="D46" s="108"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="120"/>
-      <c r="H46" s="120"/>
-      <c r="I46" s="120" t="s">
+      <c r="G46" s="108"/>
+      <c r="H46" s="108"/>
+      <c r="I46" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="J46" s="120"/>
-      <c r="K46" s="120"/>
-      <c r="L46" s="120" t="s">
+      <c r="J46" s="108"/>
+      <c r="K46" s="108"/>
+      <c r="L46" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="M46" s="120"/>
-      <c r="N46" s="120"/>
-      <c r="O46" s="120" t="s">
+      <c r="M46" s="108"/>
+      <c r="N46" s="108"/>
+      <c r="O46" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="P46" s="120"/>
-      <c r="Q46" s="120"/>
-      <c r="R46" s="120" t="s">
+      <c r="P46" s="108"/>
+      <c r="Q46" s="108"/>
+      <c r="R46" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="S46" s="120"/>
-      <c r="T46" s="120"/>
-      <c r="U46" s="121" t="s">
+      <c r="S46" s="108"/>
+      <c r="T46" s="108"/>
+      <c r="U46" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="V46" s="122"/>
-      <c r="W46" s="123"/>
-      <c r="X46" s="121" t="s">
+      <c r="V46" s="115"/>
+      <c r="W46" s="116"/>
+      <c r="X46" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="Y46" s="122"/>
-      <c r="Z46" s="123"/>
-      <c r="AA46" s="120" t="s">
+      <c r="Y46" s="115"/>
+      <c r="Z46" s="116"/>
+      <c r="AA46" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="AB46" s="120"/>
-      <c r="AC46" s="120"/>
-      <c r="AD46" s="120" t="s">
+      <c r="AB46" s="108"/>
+      <c r="AC46" s="108"/>
+      <c r="AD46" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="AE46" s="120"/>
-      <c r="AF46" s="120"/>
-      <c r="AG46" s="120" t="s">
+      <c r="AE46" s="108"/>
+      <c r="AF46" s="108"/>
+      <c r="AG46" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="AH46" s="120"/>
-      <c r="AI46" s="120"/>
-      <c r="AJ46" s="120" t="s">
+      <c r="AH46" s="108"/>
+      <c r="AI46" s="108"/>
+      <c r="AJ46" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="AK46" s="120"/>
-      <c r="AL46" s="120"/>
-      <c r="AM46" s="120" t="s">
+      <c r="AK46" s="108"/>
+      <c r="AL46" s="108"/>
+      <c r="AM46" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="AN46" s="120"/>
-      <c r="AO46" s="120"/>
+      <c r="AN46" s="108"/>
+      <c r="AO46" s="108"/>
     </row>
     <row r="47" spans="1:41" ht="42.75" customHeight="1">
-      <c r="A47" s="120" t="s">
+      <c r="A47" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="120"/>
+      <c r="B47" s="108"/>
       <c r="C47" s="54" t="s">
         <v>72</v>
       </c>
@@ -22930,10 +22976,10 @@
       </c>
     </row>
     <row r="48" spans="1:41" ht="33" customHeight="1">
-      <c r="A48" s="120" t="s">
+      <c r="A48" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="120"/>
+      <c r="B48" s="108"/>
       <c r="C48" s="54">
         <v>4</v>
       </c>
@@ -23064,7 +23110,7 @@
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="110"/>
+      <c r="B50" s="124"/>
       <c r="C50" s="63">
         <v>2010</v>
       </c>
@@ -23073,7 +23119,7 @@
       </c>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="110"/>
+      <c r="B51" s="124"/>
       <c r="C51" s="63">
         <v>2014</v>
       </c>
@@ -23083,23 +23129,26 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="AA46:AC46"/>
-    <mergeCell ref="AD46:AF46"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="AG46:AI46"/>
-    <mergeCell ref="AJ46:AL46"/>
-    <mergeCell ref="AM46:AO46"/>
-    <mergeCell ref="O46:Q46"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="U46:W46"/>
-    <mergeCell ref="X46:Z46"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="B42:B44"/>
@@ -23116,27 +23165,25 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="AG46:AI46"/>
+    <mergeCell ref="AJ46:AL46"/>
+    <mergeCell ref="AM46:AO46"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="U46:W46"/>
+    <mergeCell ref="X46:Z46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="AA46:AC46"/>
+    <mergeCell ref="AD46:AF46"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="L46:N46"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <extLst>
@@ -23145,4 +23192,1069 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="108" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="70">
+      <c r="A2" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="72" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="72" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="108"/>
+      <c r="G2" s="134" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="72">
+        <v>0.3</v>
+      </c>
+      <c r="B3" s="72">
+        <v>15.82</v>
+      </c>
+      <c r="C3" s="71">
+        <v>35586</v>
+      </c>
+      <c r="D3" s="72">
+        <v>31</v>
+      </c>
+      <c r="E3" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="132">
+        <f xml:space="preserve"> SQRT(C3)*2</f>
+        <v>377.28503813429973</v>
+      </c>
+      <c r="G3" s="133">
+        <f>F3*1.4</f>
+        <v>528.19905338801959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="71">
+        <v>0.32</v>
+      </c>
+      <c r="B4" s="71">
+        <v>11.86</v>
+      </c>
+      <c r="C4" s="71">
+        <v>33980</v>
+      </c>
+      <c r="D4" s="71">
+        <v>28</v>
+      </c>
+      <c r="E4" s="101" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="132">
+        <f t="shared" ref="F4:F41" si="0" xml:space="preserve"> SQRT(C4)*2</f>
+        <v>368.67329710734407</v>
+      </c>
+      <c r="G4" s="133">
+        <f t="shared" ref="G4:G43" si="1">F4*1.4</f>
+        <v>516.14261595028165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="71">
+        <v>0.32</v>
+      </c>
+      <c r="B5" s="71">
+        <v>17.63</v>
+      </c>
+      <c r="C5" s="71">
+        <v>28569</v>
+      </c>
+      <c r="D5" s="71">
+        <v>28</v>
+      </c>
+      <c r="E5" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="132">
+        <f t="shared" si="0"/>
+        <v>338.04733396375127</v>
+      </c>
+      <c r="G5" s="133">
+        <f t="shared" si="1"/>
+        <v>473.26626754925172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="72">
+        <v>83.1</v>
+      </c>
+      <c r="B6" s="72">
+        <v>97.65</v>
+      </c>
+      <c r="C6" s="72">
+        <v>4923</v>
+      </c>
+      <c r="D6" s="72">
+        <v>24</v>
+      </c>
+      <c r="E6" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="132">
+        <f t="shared" si="0"/>
+        <v>140.32818676231798</v>
+      </c>
+      <c r="G6" s="133">
+        <f t="shared" si="1"/>
+        <v>196.45946146724518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="71">
+        <v>90.35</v>
+      </c>
+      <c r="B7" s="71">
+        <v>110.71</v>
+      </c>
+      <c r="C7" s="71">
+        <v>3216</v>
+      </c>
+      <c r="D7" s="71">
+        <v>23</v>
+      </c>
+      <c r="E7" s="101" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" s="132">
+        <f t="shared" si="0"/>
+        <v>113.4195750300626</v>
+      </c>
+      <c r="G7" s="133">
+        <f t="shared" si="1"/>
+        <v>158.78740504208764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="71">
+        <v>98.39</v>
+      </c>
+      <c r="B8" s="71">
+        <v>155.56</v>
+      </c>
+      <c r="C8" s="71">
+        <v>6005</v>
+      </c>
+      <c r="D8" s="71">
+        <v>24</v>
+      </c>
+      <c r="E8" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="132">
+        <f t="shared" si="0"/>
+        <v>154.98387012847499</v>
+      </c>
+      <c r="G8" s="133">
+        <f t="shared" si="1"/>
+        <v>216.97741817986497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="72">
+        <v>4</v>
+      </c>
+      <c r="B9" s="72">
+        <v>108.55</v>
+      </c>
+      <c r="C9" s="72">
+        <v>24769</v>
+      </c>
+      <c r="D9" s="72">
+        <v>25</v>
+      </c>
+      <c r="E9" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="132">
+        <f t="shared" si="0"/>
+        <v>314.76340320945826</v>
+      </c>
+      <c r="G9" s="133">
+        <f t="shared" si="1"/>
+        <v>440.66876449324155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="71">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="B10" s="71">
+        <v>64.010000000000005</v>
+      </c>
+      <c r="C10" s="71">
+        <v>24872</v>
+      </c>
+      <c r="D10" s="71">
+        <v>26</v>
+      </c>
+      <c r="E10" s="101" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="132">
+        <f t="shared" si="0"/>
+        <v>315.41718405946114</v>
+      </c>
+      <c r="G10" s="133">
+        <f t="shared" si="1"/>
+        <v>441.58405768324559</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="71">
+        <v>4.47</v>
+      </c>
+      <c r="B11" s="71">
+        <v>128.94</v>
+      </c>
+      <c r="C11" s="71">
+        <v>32240</v>
+      </c>
+      <c r="D11" s="71">
+        <v>26</v>
+      </c>
+      <c r="E11" s="101" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" s="132">
+        <f t="shared" si="0"/>
+        <v>359.11001099941507</v>
+      </c>
+      <c r="G11" s="133">
+        <f t="shared" si="1"/>
+        <v>502.75401539918107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="72">
+        <v>60.5</v>
+      </c>
+      <c r="B12" s="72">
+        <v>2105.86</v>
+      </c>
+      <c r="C12" s="72">
+        <v>29316</v>
+      </c>
+      <c r="D12" s="72">
+        <v>30</v>
+      </c>
+      <c r="E12" s="101" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="132">
+        <f t="shared" si="0"/>
+        <v>342.43831561319183</v>
+      </c>
+      <c r="G12" s="133">
+        <f t="shared" si="1"/>
+        <v>479.41364185846851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="71">
+        <v>62.28</v>
+      </c>
+      <c r="B13" s="71">
+        <v>1515</v>
+      </c>
+      <c r="C13" s="71">
+        <v>29578</v>
+      </c>
+      <c r="D13" s="71">
+        <v>32</v>
+      </c>
+      <c r="E13" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="132">
+        <f t="shared" si="0"/>
+        <v>343.96511451017818</v>
+      </c>
+      <c r="G13" s="133">
+        <f t="shared" si="1"/>
+        <v>481.55116031424944</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="71">
+        <v>66.03</v>
+      </c>
+      <c r="B14" s="71">
+        <v>2254.25</v>
+      </c>
+      <c r="C14" s="71">
+        <v>36085</v>
+      </c>
+      <c r="D14" s="71">
+        <v>32</v>
+      </c>
+      <c r="E14" s="101" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="132">
+        <f t="shared" si="0"/>
+        <v>379.92104442897079</v>
+      </c>
+      <c r="G14" s="133">
+        <f t="shared" si="1"/>
+        <v>531.88946220055902</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="72">
+        <v>47.4</v>
+      </c>
+      <c r="B15" s="72">
+        <v>239.14</v>
+      </c>
+      <c r="C15" s="72">
+        <v>12160</v>
+      </c>
+      <c r="D15" s="72">
+        <v>28</v>
+      </c>
+      <c r="E15" s="101" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="132">
+        <f t="shared" si="0"/>
+        <v>220.54478003344354</v>
+      </c>
+      <c r="G15" s="133">
+        <f t="shared" si="1"/>
+        <v>308.76269204682092</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="71">
+        <v>48.69</v>
+      </c>
+      <c r="B16" s="71">
+        <v>183.25</v>
+      </c>
+      <c r="C16" s="71">
+        <v>9332</v>
+      </c>
+      <c r="D16" s="71">
+        <v>28</v>
+      </c>
+      <c r="E16" s="101" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="132">
+        <f t="shared" si="0"/>
+        <v>193.20455481173315</v>
+      </c>
+      <c r="G16" s="133">
+        <f t="shared" si="1"/>
+        <v>270.48637673642639</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="71">
+        <v>52.98</v>
+      </c>
+      <c r="B17" s="71">
+        <v>313.47000000000003</v>
+      </c>
+      <c r="C17" s="71">
+        <v>12042</v>
+      </c>
+      <c r="D17" s="71">
+        <v>31</v>
+      </c>
+      <c r="E17" s="101" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17" s="132">
+        <f t="shared" si="0"/>
+        <v>219.47209389806258</v>
+      </c>
+      <c r="G17" s="133">
+        <f t="shared" si="1"/>
+        <v>307.2609314572876</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="72">
+        <v>59.7</v>
+      </c>
+      <c r="B18" s="72">
+        <v>2201.4699999999998</v>
+      </c>
+      <c r="C18" s="72">
+        <v>30470</v>
+      </c>
+      <c r="D18" s="72">
+        <v>26</v>
+      </c>
+      <c r="E18" s="101" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="132">
+        <f t="shared" si="0"/>
+        <v>349.11316216951775</v>
+      </c>
+      <c r="G18" s="133">
+        <f t="shared" si="1"/>
+        <v>488.75842703732479</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="71">
+        <v>61.41</v>
+      </c>
+      <c r="B19" s="71">
+        <v>1778.27</v>
+      </c>
+      <c r="C19" s="71">
+        <v>32147</v>
+      </c>
+      <c r="D19" s="71">
+        <v>26</v>
+      </c>
+      <c r="E19" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="132">
+        <f t="shared" si="0"/>
+        <v>358.59168980889672</v>
+      </c>
+      <c r="G19" s="133">
+        <f t="shared" si="1"/>
+        <v>502.02836573245537</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="71">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="B20" s="71">
+        <v>2432.81</v>
+      </c>
+      <c r="C20" s="71">
+        <v>34658</v>
+      </c>
+      <c r="D20" s="71">
+        <v>32</v>
+      </c>
+      <c r="E20" s="101" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="132">
+        <f t="shared" si="0"/>
+        <v>372.33318412411217</v>
+      </c>
+      <c r="G20" s="133">
+        <f t="shared" si="1"/>
+        <v>521.266457773757</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="71">
+        <v>298.2</v>
+      </c>
+      <c r="B21" s="71">
+        <v>12485.73</v>
+      </c>
+      <c r="C21" s="71">
+        <v>41399</v>
+      </c>
+      <c r="D21" s="71">
+        <v>26</v>
+      </c>
+      <c r="E21" s="101" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="132">
+        <f t="shared" si="0"/>
+        <v>406.93488422596556</v>
+      </c>
+      <c r="G21" s="133">
+        <f t="shared" si="1"/>
+        <v>569.70883791635174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="71">
+        <v>304.06</v>
+      </c>
+      <c r="B22" s="71">
+        <v>11513.87</v>
+      </c>
+      <c r="C22" s="71">
+        <v>42107</v>
+      </c>
+      <c r="D22" s="71">
+        <v>26</v>
+      </c>
+      <c r="E22" s="101" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="132">
+        <f t="shared" si="0"/>
+        <v>410.39980506817983</v>
+      </c>
+      <c r="G22" s="133">
+        <f t="shared" si="1"/>
+        <v>574.55972709545176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="71">
+        <v>316.13</v>
+      </c>
+      <c r="B23" s="71">
+        <v>14498.62</v>
+      </c>
+      <c r="C23" s="71">
+        <v>50866</v>
+      </c>
+      <c r="D23" s="71">
+        <v>27</v>
+      </c>
+      <c r="E23" s="101" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" s="132">
+        <f t="shared" si="0"/>
+        <v>451.06983938188552</v>
+      </c>
+      <c r="G23" s="133">
+        <f t="shared" si="1"/>
+        <v>631.49777513463971</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="72">
+        <v>45.6</v>
+      </c>
+      <c r="B24" s="72">
+        <v>122.27</v>
+      </c>
+      <c r="C24" s="72">
+        <v>7565</v>
+      </c>
+      <c r="D24" s="72">
+        <v>23</v>
+      </c>
+      <c r="E24" s="101" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="132">
+        <f t="shared" si="0"/>
+        <v>173.95401691251627</v>
+      </c>
+      <c r="G24" s="133">
+        <f t="shared" si="1"/>
+        <v>243.53562367752275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="71">
+        <v>45.01</v>
+      </c>
+      <c r="B25" s="71">
+        <v>134.41999999999999</v>
+      </c>
+      <c r="C25" s="71">
+        <v>8043</v>
+      </c>
+      <c r="D25" s="71">
+        <v>23</v>
+      </c>
+      <c r="E25" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="132">
+        <f t="shared" si="0"/>
+        <v>179.3655485314836</v>
+      </c>
+      <c r="G25" s="133">
+        <f t="shared" si="1"/>
+        <v>251.11176794407703</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="71">
+        <v>48.32</v>
+      </c>
+      <c r="B26" s="71">
+        <v>211.47</v>
+      </c>
+      <c r="C26" s="71">
+        <v>11637</v>
+      </c>
+      <c r="D26" s="71">
+        <v>22</v>
+      </c>
+      <c r="E26" s="101" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="132">
+        <f t="shared" si="0"/>
+        <v>215.74985515638244</v>
+      </c>
+      <c r="G26" s="133">
+        <f t="shared" si="1"/>
+        <v>302.0497972189354</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="71">
+        <v>16.3</v>
+      </c>
+      <c r="B27" s="71">
+        <v>113.96</v>
+      </c>
+      <c r="C27" s="71">
+        <v>11937</v>
+      </c>
+      <c r="D27" s="71">
+        <v>23</v>
+      </c>
+      <c r="E27" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="132">
+        <f t="shared" si="0"/>
+        <v>218.51315749858176</v>
+      </c>
+      <c r="G27" s="133">
+        <f t="shared" si="1"/>
+        <v>305.91842049801443</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="71">
+        <v>16.8</v>
+      </c>
+      <c r="B28" s="71">
+        <v>104.38</v>
+      </c>
+      <c r="C28" s="71">
+        <v>13057</v>
+      </c>
+      <c r="D28" s="71">
+        <v>25</v>
+      </c>
+      <c r="E28" s="101" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="132">
+        <f t="shared" si="0"/>
+        <v>228.53446129632178</v>
+      </c>
+      <c r="G28" s="133">
+        <f t="shared" si="1"/>
+        <v>319.94824581485045</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="71">
+        <v>17.62</v>
+      </c>
+      <c r="B29" s="71">
+        <v>171.41</v>
+      </c>
+      <c r="C29" s="71">
+        <v>21049</v>
+      </c>
+      <c r="D29" s="71">
+        <v>27</v>
+      </c>
+      <c r="E29" s="101" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" s="132">
+        <f t="shared" si="0"/>
+        <v>290.16547003391014</v>
+      </c>
+      <c r="G29" s="133">
+        <f t="shared" si="1"/>
+        <v>406.23165804747418</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="71">
+        <v>1315.8</v>
+      </c>
+      <c r="B30" s="71">
+        <v>2224.81</v>
+      </c>
+      <c r="C30" s="71">
+        <v>7204</v>
+      </c>
+      <c r="D30" s="71">
+        <v>23</v>
+      </c>
+      <c r="E30" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="132">
+        <f t="shared" si="0"/>
+        <v>169.75276139138356</v>
+      </c>
+      <c r="G30" s="133">
+        <f t="shared" si="1"/>
+        <v>237.65386594793696</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="71">
+        <v>1324.66</v>
+      </c>
+      <c r="B31" s="71">
+        <v>2602.5700000000002</v>
+      </c>
+      <c r="C31" s="71">
+        <v>6200</v>
+      </c>
+      <c r="D31" s="71">
+        <v>23</v>
+      </c>
+      <c r="E31" s="101" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" s="132">
+        <f t="shared" si="0"/>
+        <v>157.48015748023622</v>
+      </c>
+      <c r="G31" s="133">
+        <f t="shared" si="1"/>
+        <v>220.47222047233069</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="71">
+        <v>1357.38</v>
+      </c>
+      <c r="B32" s="71">
+        <v>4864</v>
+      </c>
+      <c r="C32" s="71">
+        <v>10756</v>
+      </c>
+      <c r="D32" s="71">
+        <v>25</v>
+      </c>
+      <c r="E32" s="101" t="s">
+        <v>167</v>
+      </c>
+      <c r="F32" s="132">
+        <f t="shared" si="0"/>
+        <v>207.42227459942677</v>
+      </c>
+      <c r="G32" s="133">
+        <f t="shared" si="1"/>
+        <v>290.39118443919745</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="72">
+        <v>28.8</v>
+      </c>
+      <c r="B33" s="72">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="C33" s="72">
+        <v>1617</v>
+      </c>
+      <c r="D33" s="72">
+        <v>20</v>
+      </c>
+      <c r="E33" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="132">
+        <f t="shared" si="0"/>
+        <v>80.423877051532401</v>
+      </c>
+      <c r="G33" s="133">
+        <f t="shared" si="1"/>
+        <v>112.59342787214536</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="71">
+        <v>31.66</v>
+      </c>
+      <c r="B34" s="71">
+        <v>11.02</v>
+      </c>
+      <c r="C34" s="71">
+        <v>1105</v>
+      </c>
+      <c r="D34" s="71">
+        <v>20</v>
+      </c>
+      <c r="E34" s="101" t="s">
+        <v>187</v>
+      </c>
+      <c r="F34" s="132">
+        <f t="shared" si="0"/>
+        <v>66.483080554378645</v>
+      </c>
+      <c r="G34" s="133">
+        <f t="shared" si="1"/>
+        <v>93.076312776130095</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="71">
+        <v>37.58</v>
+      </c>
+      <c r="B35" s="71">
+        <v>15.59</v>
+      </c>
+      <c r="C35" s="71">
+        <v>1334</v>
+      </c>
+      <c r="D35" s="71">
+        <v>20</v>
+      </c>
+      <c r="E35" s="101" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35" s="132">
+        <f xml:space="preserve"> SQRT(C35)*2</f>
+        <v>73.047929470998696</v>
+      </c>
+      <c r="G35" s="133">
+        <f t="shared" si="1"/>
+        <v>102.26710125939817</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="72">
+        <v>128.1</v>
+      </c>
+      <c r="B36" s="72">
+        <v>4571.3100000000004</v>
+      </c>
+      <c r="C36" s="72">
+        <v>30615</v>
+      </c>
+      <c r="D36" s="72">
+        <v>29</v>
+      </c>
+      <c r="E36" s="101" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" s="132">
+        <f t="shared" si="0"/>
+        <v>349.94285247737236</v>
+      </c>
+      <c r="G36" s="133">
+        <f t="shared" si="1"/>
+        <v>489.91999346832125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="71">
+        <v>127.7</v>
+      </c>
+      <c r="B37" s="71">
+        <v>5166.28</v>
+      </c>
+      <c r="C37" s="71">
+        <v>29688</v>
+      </c>
+      <c r="D37" s="71">
+        <v>29</v>
+      </c>
+      <c r="E37" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="F37" s="132">
+        <f t="shared" si="0"/>
+        <v>344.60412069503752</v>
+      </c>
+      <c r="G37" s="133">
+        <f t="shared" si="1"/>
+        <v>482.44576897305251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="71">
+        <v>127.34</v>
+      </c>
+      <c r="B38" s="71">
+        <v>4766.66</v>
+      </c>
+      <c r="C38" s="71">
+        <v>34882</v>
+      </c>
+      <c r="D38" s="71">
+        <v>30</v>
+      </c>
+      <c r="E38" s="101" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" s="132">
+        <f t="shared" si="0"/>
+        <v>373.53446962763689</v>
+      </c>
+      <c r="G38" s="133">
+        <f t="shared" si="1"/>
+        <v>522.94825747869163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="72">
+        <v>1103.4000000000001</v>
+      </c>
+      <c r="B39" s="72">
+        <v>445.41</v>
+      </c>
+      <c r="C39" s="72">
+        <v>3344</v>
+      </c>
+      <c r="D39" s="72">
+        <v>20</v>
+      </c>
+      <c r="E39" s="101" t="s">
+        <v>146</v>
+      </c>
+      <c r="F39" s="132">
+        <f t="shared" si="0"/>
+        <v>115.65465835840769</v>
+      </c>
+      <c r="G39" s="133">
+        <f t="shared" si="1"/>
+        <v>161.91652170177076</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="71">
+        <v>1139.96</v>
+      </c>
+      <c r="B40" s="71">
+        <v>817.94</v>
+      </c>
+      <c r="C40" s="71">
+        <v>2970</v>
+      </c>
+      <c r="D40" s="71">
+        <v>20</v>
+      </c>
+      <c r="E40" s="101" t="s">
+        <v>158</v>
+      </c>
+      <c r="F40" s="132">
+        <f t="shared" si="0"/>
+        <v>108.9954127475097</v>
+      </c>
+      <c r="G40" s="133">
+        <f t="shared" si="1"/>
+        <v>152.59357784651357</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="71">
+        <v>1252.1400000000001</v>
+      </c>
+      <c r="B41" s="71">
+        <v>1458.74</v>
+      </c>
+      <c r="C41" s="71">
+        <v>5050</v>
+      </c>
+      <c r="D41" s="71">
+        <v>20</v>
+      </c>
+      <c r="E41" s="101" t="s">
+        <v>170</v>
+      </c>
+      <c r="F41" s="132">
+        <f t="shared" si="0"/>
+        <v>142.12670403551894</v>
+      </c>
+      <c r="G41" s="133">
+        <f t="shared" si="1"/>
+        <v>198.9773856497265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="F42" s="132">
+        <f>MAX(F3:F41)</f>
+        <v>451.06983938188552</v>
+      </c>
+      <c r="G42" s="133">
+        <f t="shared" si="1"/>
+        <v>631.49777513463971</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="F43" s="132">
+        <f>MIN(F3:F41)</f>
+        <v>66.483080554378645</v>
+      </c>
+      <c r="G43" s="133">
+        <f t="shared" si="1"/>
+        <v>93.076312776130095</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="G44" s="133">
+        <f>AVERAGE(G3:G41)</f>
+        <v>359.89933450108464</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/jsons/GenderGap_Find4Hourglass.xlsx
+++ b/jsons/GenderGap_Find4Hourglass.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="0" windowWidth="14560" windowHeight="17540" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="980" yWindow="0" windowWidth="26540" windowHeight="14780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Total_W2E" sheetId="9" r:id="rId1"/>
@@ -749,22 +749,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="###0.00;###0.00"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="164" formatCode="###0.00;###0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.00_ "/>
+    <numFmt numFmtId="167" formatCode="0_ "/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -794,7 +794,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -803,7 +803,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -811,7 +811,7 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -840,7 +840,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -848,21 +848,21 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -871,21 +871,21 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -893,14 +893,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1154,7 +1154,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="271">
+  <cellStyleXfs count="297">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1426,6 +1426,32 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1447,7 +1473,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1462,7 +1488,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1477,7 +1503,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1486,7 +1512,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1531,13 +1557,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1546,13 +1572,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1626,10 +1652,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1658,20 +1684,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="10" xfId="108"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="8" borderId="1" xfId="107" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="8" borderId="1" xfId="107" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="8" borderId="1" xfId="107" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="19" fillId="8" borderId="1" xfId="107" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="106" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1718,7 +1744,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="108" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" xfId="107" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="106" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="106" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="106" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="106" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="108" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="108" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1733,7 +1800,19 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1748,338 +1827,311 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="106" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="106" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="106" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="106" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="108" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="108" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" xfId="107" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="271">
+  <cellStyles count="297">
+    <cellStyle name="Bad" xfId="107" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="108" builtinId="23"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="106" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="105"/>
-    <cellStyle name="好" xfId="106" builtinId="26"/>
-    <cellStyle name="差" xfId="107" builtinId="27"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="检查单元格" xfId="108" builtinId="23"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2094,7 +2146,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2454,11 +2506,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="2130907592"/>
-        <c:axId val="2130905208"/>
+        <c:axId val="2108113480"/>
+        <c:axId val="2108116504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2130907592"/>
+        <c:axId val="2108113480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2467,7 +2519,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130905208"/>
+        <c:crossAx val="2108116504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2475,7 +2527,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130905208"/>
+        <c:axId val="2108116504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2491,7 +2543,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2130907592"/>
+        <c:crossAx val="2108113480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2516,7 +2568,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2706,11 +2758,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2130879832"/>
-        <c:axId val="2130876872"/>
+        <c:axId val="2108159800"/>
+        <c:axId val="2108162744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2130879832"/>
+        <c:axId val="2108159800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2719,7 +2771,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130876872"/>
+        <c:crossAx val="2108162744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2727,7 +2779,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130876872"/>
+        <c:axId val="2108162744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2738,7 +2790,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="2130879832"/>
+        <c:crossAx val="2108159800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3164,8 +3216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO82"/>
   <sheetViews>
-    <sheetView topLeftCell="U14" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63:N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3194,37 +3246,37 @@
     <row r="1" spans="1:27" ht="34" customHeight="1">
       <c r="A1" s="97"/>
       <c r="B1" s="97"/>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="132" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="109" t="s">
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="109" t="s">
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
       <c r="T1" s="71" t="s">
         <v>92</v>
       </c>
@@ -3241,9 +3293,9 @@
     <row r="2" spans="1:27" ht="113" customHeight="1">
       <c r="A2" s="97"/>
       <c r="B2" s="97"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -3312,13 +3364,13 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="129" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="105">
-        <v>1</v>
-      </c>
-      <c r="C3" s="108" t="s">
+      <c r="B3" s="120">
+        <v>1</v>
+      </c>
+      <c r="C3" s="123" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="92">
@@ -3386,9 +3438,9 @@
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="111"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="108"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="123"/>
       <c r="D4" s="92">
         <v>2010</v>
       </c>
@@ -3454,9 +3506,9 @@
       </c>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="111"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="108"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="123"/>
       <c r="D5" s="25">
         <v>2014</v>
       </c>
@@ -3522,7 +3574,7 @@
       </c>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="111"/>
+      <c r="A6" s="130"/>
       <c r="B6" s="91"/>
       <c r="C6" s="92"/>
       <c r="D6" s="25"/>
@@ -3544,11 +3596,11 @@
       <c r="X6" s="101"/>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1">
-      <c r="A7" s="111"/>
-      <c r="B7" s="105">
+      <c r="A7" s="130"/>
+      <c r="B7" s="120">
         <v>2</v>
       </c>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="123" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="92">
@@ -3616,9 +3668,9 @@
       </c>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="111"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="108"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="92">
         <v>2010</v>
       </c>
@@ -3684,9 +3736,9 @@
       </c>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="111"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="108"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="123"/>
       <c r="D9" s="25">
         <v>2014</v>
       </c>
@@ -3752,7 +3804,7 @@
       </c>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="111"/>
+      <c r="A10" s="130"/>
       <c r="B10" s="91"/>
       <c r="C10" s="92"/>
       <c r="D10" s="25"/>
@@ -3774,11 +3826,11 @@
       <c r="X10" s="101"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A11" s="111"/>
-      <c r="B11" s="105">
+      <c r="A11" s="130"/>
+      <c r="B11" s="120">
         <v>3</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="123" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="92">
@@ -3846,9 +3898,9 @@
       </c>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="111"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="108"/>
+      <c r="A12" s="130"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="123"/>
       <c r="D12" s="92">
         <v>2010</v>
       </c>
@@ -3914,9 +3966,9 @@
       </c>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="111"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
+      <c r="A13" s="130"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="123"/>
       <c r="D13" s="25">
         <v>2014</v>
       </c>
@@ -3982,7 +4034,7 @@
       </c>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="111"/>
+      <c r="A14" s="130"/>
       <c r="B14" s="91"/>
       <c r="C14" s="92"/>
       <c r="D14" s="25"/>
@@ -4004,11 +4056,11 @@
       <c r="X14" s="101"/>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="111"/>
-      <c r="B15" s="105">
+      <c r="A15" s="130"/>
+      <c r="B15" s="120">
         <v>4</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="123" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="92">
@@ -4076,9 +4128,9 @@
       </c>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="111"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="108"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="123"/>
       <c r="D16" s="92">
         <v>2010</v>
       </c>
@@ -4144,9 +4196,9 @@
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="111"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="108"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="123"/>
       <c r="D17" s="25">
         <v>2014</v>
       </c>
@@ -4212,7 +4264,7 @@
       </c>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="111"/>
+      <c r="A18" s="130"/>
       <c r="B18" s="91"/>
       <c r="C18" s="92"/>
       <c r="D18" s="25"/>
@@ -4234,11 +4286,11 @@
       <c r="X18" s="101"/>
     </row>
     <row r="19" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A19" s="111"/>
-      <c r="B19" s="105">
+      <c r="A19" s="130"/>
+      <c r="B19" s="120">
         <v>5</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="123" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="92">
@@ -4306,9 +4358,9 @@
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="111"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="108"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="123"/>
       <c r="D20" s="92">
         <v>2010</v>
       </c>
@@ -4374,9 +4426,9 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="111"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="108"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="123"/>
       <c r="D21" s="25">
         <v>2014</v>
       </c>
@@ -4442,7 +4494,7 @@
       </c>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="111"/>
+      <c r="A22" s="130"/>
       <c r="B22" s="91"/>
       <c r="C22" s="92"/>
       <c r="D22" s="25"/>
@@ -4464,11 +4516,11 @@
       <c r="X22" s="101"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A23" s="111"/>
-      <c r="B23" s="105">
+      <c r="A23" s="130"/>
+      <c r="B23" s="120">
         <v>6</v>
       </c>
-      <c r="C23" s="108" t="s">
+      <c r="C23" s="123" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="92">
@@ -4536,9 +4588,9 @@
       </c>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="111"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="108"/>
+      <c r="A24" s="130"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="123"/>
       <c r="D24" s="92">
         <v>2010</v>
       </c>
@@ -4604,9 +4656,9 @@
       </c>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="111"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="108"/>
+      <c r="A25" s="130"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="123"/>
       <c r="D25" s="25">
         <v>2014</v>
       </c>
@@ -4672,7 +4724,7 @@
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="111"/>
+      <c r="A26" s="130"/>
       <c r="B26" s="91"/>
       <c r="C26" s="92"/>
       <c r="D26" s="25"/>
@@ -4694,11 +4746,11 @@
       <c r="X26" s="101"/>
     </row>
     <row r="27" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A27" s="111"/>
-      <c r="B27" s="105">
+      <c r="A27" s="130"/>
+      <c r="B27" s="120">
         <v>7</v>
       </c>
-      <c r="C27" s="108" t="s">
+      <c r="C27" s="123" t="s">
         <v>70</v>
       </c>
       <c r="D27" s="92">
@@ -4766,9 +4818,9 @@
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="111"/>
-      <c r="B28" s="106"/>
-      <c r="C28" s="108"/>
+      <c r="A28" s="130"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="123"/>
       <c r="D28" s="92">
         <v>2010</v>
       </c>
@@ -4834,9 +4886,9 @@
       </c>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="111"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="108"/>
+      <c r="A29" s="130"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="123"/>
       <c r="D29" s="25">
         <v>2014</v>
       </c>
@@ -4902,7 +4954,7 @@
       </c>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="111"/>
+      <c r="A30" s="130"/>
       <c r="B30" s="91"/>
       <c r="C30" s="95"/>
       <c r="D30" s="25"/>
@@ -4924,11 +4976,11 @@
       <c r="X30" s="101"/>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="111"/>
-      <c r="B31" s="105">
+      <c r="A31" s="130"/>
+      <c r="B31" s="120">
         <v>8</v>
       </c>
-      <c r="C31" s="114" t="s">
+      <c r="C31" s="124" t="s">
         <v>54</v>
       </c>
       <c r="D31" s="92">
@@ -4996,9 +5048,9 @@
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="111"/>
-      <c r="B32" s="106"/>
-      <c r="C32" s="115"/>
+      <c r="A32" s="130"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="125"/>
       <c r="D32" s="92">
         <v>2010</v>
       </c>
@@ -5064,9 +5116,9 @@
       </c>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="111"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="116"/>
+      <c r="A33" s="130"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="126"/>
       <c r="D33" s="25">
         <v>2014</v>
       </c>
@@ -5132,7 +5184,7 @@
       </c>
     </row>
     <row r="34" spans="1:24">
-      <c r="A34" s="111"/>
+      <c r="A34" s="130"/>
       <c r="B34" s="91"/>
       <c r="C34" s="96"/>
       <c r="D34" s="25"/>
@@ -5154,11 +5206,11 @@
       <c r="X34" s="101"/>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="111"/>
-      <c r="B35" s="105">
+      <c r="A35" s="130"/>
+      <c r="B35" s="120">
         <v>9</v>
       </c>
-      <c r="C35" s="108" t="s">
+      <c r="C35" s="123" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="92">
@@ -5226,9 +5278,9 @@
       </c>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="111"/>
-      <c r="B36" s="106"/>
-      <c r="C36" s="108"/>
+      <c r="A36" s="130"/>
+      <c r="B36" s="121"/>
+      <c r="C36" s="123"/>
       <c r="D36" s="92">
         <v>2010</v>
       </c>
@@ -5294,9 +5346,9 @@
       </c>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="111"/>
-      <c r="B37" s="107"/>
-      <c r="C37" s="108"/>
+      <c r="A37" s="130"/>
+      <c r="B37" s="122"/>
+      <c r="C37" s="123"/>
       <c r="D37" s="25">
         <v>2014</v>
       </c>
@@ -5362,7 +5414,7 @@
       </c>
     </row>
     <row r="38" spans="1:24">
-      <c r="A38" s="111"/>
+      <c r="A38" s="130"/>
       <c r="B38" s="91"/>
       <c r="C38" s="92"/>
       <c r="D38" s="25"/>
@@ -5384,11 +5436,11 @@
       <c r="X38" s="101"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="111"/>
-      <c r="B39" s="105">
+      <c r="A39" s="130"/>
+      <c r="B39" s="120">
         <v>10</v>
       </c>
-      <c r="C39" s="108" t="s">
+      <c r="C39" s="123" t="s">
         <v>28</v>
       </c>
       <c r="D39" s="92">
@@ -5456,9 +5508,9 @@
       </c>
     </row>
     <row r="40" spans="1:24">
-      <c r="A40" s="111"/>
-      <c r="B40" s="106"/>
-      <c r="C40" s="108"/>
+      <c r="A40" s="130"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="123"/>
       <c r="D40" s="92">
         <v>2010</v>
       </c>
@@ -5524,9 +5576,9 @@
       </c>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="111"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="108"/>
+      <c r="A41" s="130"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="123"/>
       <c r="D41" s="25">
         <v>2014</v>
       </c>
@@ -5592,7 +5644,7 @@
       </c>
     </row>
     <row r="42" spans="1:24">
-      <c r="A42" s="111"/>
+      <c r="A42" s="130"/>
       <c r="B42" s="91"/>
       <c r="C42" s="92"/>
       <c r="D42" s="25"/>
@@ -5614,11 +5666,11 @@
       <c r="X42" s="101"/>
     </row>
     <row r="43" spans="1:24">
-      <c r="A43" s="111"/>
-      <c r="B43" s="105">
+      <c r="A43" s="130"/>
+      <c r="B43" s="120">
         <v>11</v>
       </c>
-      <c r="C43" s="108" t="s">
+      <c r="C43" s="123" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="92">
@@ -5686,9 +5738,9 @@
       </c>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44" s="111"/>
-      <c r="B44" s="106"/>
-      <c r="C44" s="108"/>
+      <c r="A44" s="130"/>
+      <c r="B44" s="121"/>
+      <c r="C44" s="123"/>
       <c r="D44" s="92">
         <v>2010</v>
       </c>
@@ -5754,9 +5806,9 @@
       </c>
     </row>
     <row r="45" spans="1:24">
-      <c r="A45" s="111"/>
-      <c r="B45" s="107"/>
-      <c r="C45" s="108"/>
+      <c r="A45" s="130"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="123"/>
       <c r="D45" s="25">
         <v>2014</v>
       </c>
@@ -5822,7 +5874,7 @@
       </c>
     </row>
     <row r="46" spans="1:24">
-      <c r="A46" s="111"/>
+      <c r="A46" s="130"/>
       <c r="B46" s="91"/>
       <c r="C46" s="92"/>
       <c r="D46" s="25"/>
@@ -5844,11 +5896,11 @@
       <c r="X46" s="101"/>
     </row>
     <row r="47" spans="1:24">
-      <c r="A47" s="111"/>
-      <c r="B47" s="105">
+      <c r="A47" s="130"/>
+      <c r="B47" s="120">
         <v>12</v>
       </c>
-      <c r="C47" s="108" t="s">
+      <c r="C47" s="123" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="92">
@@ -5916,9 +5968,9 @@
       </c>
     </row>
     <row r="48" spans="1:24">
-      <c r="A48" s="111"/>
-      <c r="B48" s="106"/>
-      <c r="C48" s="108"/>
+      <c r="A48" s="130"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="123"/>
       <c r="D48" s="92">
         <v>2010</v>
       </c>
@@ -5984,9 +6036,9 @@
       </c>
     </row>
     <row r="49" spans="1:41">
-      <c r="A49" s="111"/>
-      <c r="B49" s="107"/>
-      <c r="C49" s="108"/>
+      <c r="A49" s="130"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="123"/>
       <c r="D49" s="25">
         <v>2014</v>
       </c>
@@ -6052,7 +6104,7 @@
       </c>
     </row>
     <row r="50" spans="1:41">
-      <c r="A50" s="111"/>
+      <c r="A50" s="130"/>
       <c r="B50" s="91"/>
       <c r="C50" s="92"/>
       <c r="D50" s="25"/>
@@ -6074,11 +6126,11 @@
       <c r="X50" s="101"/>
     </row>
     <row r="51" spans="1:41">
-      <c r="A51" s="111"/>
-      <c r="B51" s="105">
+      <c r="A51" s="130"/>
+      <c r="B51" s="120">
         <v>13</v>
       </c>
-      <c r="C51" s="108" t="s">
+      <c r="C51" s="123" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="92">
@@ -6146,9 +6198,9 @@
       </c>
     </row>
     <row r="52" spans="1:41">
-      <c r="A52" s="111"/>
-      <c r="B52" s="106"/>
-      <c r="C52" s="108"/>
+      <c r="A52" s="130"/>
+      <c r="B52" s="121"/>
+      <c r="C52" s="123"/>
       <c r="D52" s="92">
         <v>2010</v>
       </c>
@@ -6214,9 +6266,9 @@
       </c>
     </row>
     <row r="53" spans="1:41">
-      <c r="A53" s="111"/>
-      <c r="B53" s="107"/>
-      <c r="C53" s="108"/>
+      <c r="A53" s="130"/>
+      <c r="B53" s="122"/>
+      <c r="C53" s="123"/>
       <c r="D53" s="25">
         <v>2014</v>
       </c>
@@ -6282,79 +6334,79 @@
       </c>
     </row>
     <row r="54" spans="1:41">
-      <c r="A54" s="111"/>
+      <c r="A54" s="130"/>
     </row>
     <row r="55" spans="1:41" s="75" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A55" s="111"/>
+      <c r="A55" s="130"/>
       <c r="B55" s="86"/>
-      <c r="C55" s="120" t="s">
+      <c r="C55" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="120"/>
-      <c r="E55" s="120"/>
-      <c r="F55" s="120" t="s">
+      <c r="D55" s="107"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="120"/>
-      <c r="H55" s="120"/>
-      <c r="I55" s="120" t="s">
+      <c r="G55" s="107"/>
+      <c r="H55" s="107"/>
+      <c r="I55" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J55" s="120"/>
-      <c r="K55" s="120"/>
-      <c r="L55" s="120" t="s">
+      <c r="J55" s="107"/>
+      <c r="K55" s="107"/>
+      <c r="L55" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="M55" s="120"/>
-      <c r="N55" s="120"/>
-      <c r="O55" s="120" t="s">
+      <c r="M55" s="107"/>
+      <c r="N55" s="107"/>
+      <c r="O55" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="P55" s="120"/>
-      <c r="Q55" s="120"/>
-      <c r="R55" s="117" t="s">
+      <c r="P55" s="107"/>
+      <c r="Q55" s="107"/>
+      <c r="R55" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="S55" s="118"/>
-      <c r="T55" s="119"/>
-      <c r="U55" s="120" t="s">
+      <c r="S55" s="116"/>
+      <c r="T55" s="117"/>
+      <c r="U55" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="V55" s="120"/>
-      <c r="W55" s="120"/>
-      <c r="X55" s="117" t="s">
+      <c r="V55" s="107"/>
+      <c r="W55" s="107"/>
+      <c r="X55" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="Y55" s="118"/>
-      <c r="Z55" s="119"/>
-      <c r="AA55" s="120" t="s">
+      <c r="Y55" s="116"/>
+      <c r="Z55" s="117"/>
+      <c r="AA55" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="AB55" s="120"/>
-      <c r="AC55" s="120"/>
-      <c r="AD55" s="120" t="s">
+      <c r="AB55" s="107"/>
+      <c r="AC55" s="107"/>
+      <c r="AD55" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="AE55" s="120"/>
-      <c r="AF55" s="120"/>
-      <c r="AG55" s="120" t="s">
+      <c r="AE55" s="107"/>
+      <c r="AF55" s="107"/>
+      <c r="AG55" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="AH55" s="120"/>
-      <c r="AI55" s="120"/>
-      <c r="AJ55" s="120" t="s">
+      <c r="AH55" s="107"/>
+      <c r="AI55" s="107"/>
+      <c r="AJ55" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="AK55" s="120"/>
-      <c r="AL55" s="120"/>
-      <c r="AM55" s="120" t="s">
+      <c r="AK55" s="107"/>
+      <c r="AL55" s="107"/>
+      <c r="AM55" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="AN55" s="120"/>
-      <c r="AO55" s="120"/>
+      <c r="AN55" s="107"/>
+      <c r="AO55" s="107"/>
     </row>
     <row r="56" spans="1:41" s="75" customFormat="1" ht="70">
-      <c r="A56" s="112"/>
+      <c r="A56" s="131"/>
       <c r="B56" s="86"/>
       <c r="C56" s="86" t="s">
         <v>72</v>
@@ -6595,10 +6647,10 @@
       </c>
     </row>
     <row r="58" spans="1:41" s="79" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A58" s="121" t="s">
+      <c r="A58" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="122"/>
+      <c r="B58" s="119"/>
       <c r="C58" s="79">
         <v>2006</v>
       </c>
@@ -6635,10 +6687,10 @@
       <c r="Y58" s="100"/>
     </row>
     <row r="59" spans="1:41" ht="16" thickTop="1">
-      <c r="A59" s="123" t="s">
+      <c r="A59" s="112" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="123"/>
+      <c r="B59" s="112"/>
       <c r="C59">
         <f xml:space="preserve"> C57/115</f>
         <v>3.4782608695652174E-2</v>
@@ -6797,10 +6849,10 @@
       </c>
     </row>
     <row r="60" spans="1:41">
-      <c r="A60" s="124" t="s">
+      <c r="A60" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="124"/>
+      <c r="B60" s="113"/>
       <c r="C60">
         <f xml:space="preserve"> C59*72</f>
         <v>2.5043478260869567</v>
@@ -6959,10 +7011,10 @@
       </c>
     </row>
     <row r="61" spans="1:41" s="80" customFormat="1">
-      <c r="A61" s="125" t="s">
+      <c r="A61" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="B61" s="125"/>
+      <c r="B61" s="114"/>
       <c r="C61" s="80">
         <f xml:space="preserve"> 72-C60</f>
         <v>69.495652173913044</v>
@@ -7272,77 +7324,77 @@
       <c r="X66" s="85"/>
     </row>
     <row r="67" spans="1:41">
-      <c r="C67" s="120" t="s">
+      <c r="C67" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="D67" s="120"/>
-      <c r="E67" s="120"/>
-      <c r="F67" s="117" t="s">
-        <v>54</v>
-      </c>
-      <c r="G67" s="118"/>
-      <c r="H67" s="119"/>
-      <c r="I67" s="120" t="s">
+      <c r="D67" s="107"/>
+      <c r="E67" s="107"/>
+      <c r="F67" s="115" t="s">
+        <v>71</v>
+      </c>
+      <c r="G67" s="116"/>
+      <c r="H67" s="117"/>
+      <c r="I67" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="J67" s="120"/>
-      <c r="K67" s="120"/>
-      <c r="L67" s="120" t="s">
+      <c r="J67" s="107"/>
+      <c r="K67" s="107"/>
+      <c r="L67" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="M67" s="120"/>
-      <c r="N67" s="120"/>
-      <c r="O67" s="120" t="s">
+      <c r="M67" s="107"/>
+      <c r="N67" s="107"/>
+      <c r="O67" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="P67" s="120"/>
-      <c r="Q67" s="120"/>
-      <c r="R67" s="117" t="s">
+      <c r="P67" s="107"/>
+      <c r="Q67" s="107"/>
+      <c r="R67" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="S67" s="118"/>
-      <c r="T67" s="119"/>
-      <c r="U67" s="120" t="s">
+      <c r="S67" s="116"/>
+      <c r="T67" s="117"/>
+      <c r="U67" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="V67" s="120"/>
-      <c r="W67" s="120"/>
-      <c r="X67" s="120" t="s">
+      <c r="V67" s="107"/>
+      <c r="W67" s="107"/>
+      <c r="X67" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="Y67" s="120"/>
-      <c r="Z67" s="120"/>
-      <c r="AA67" s="120" t="s">
+      <c r="Y67" s="107"/>
+      <c r="Z67" s="107"/>
+      <c r="AA67" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="AB67" s="120"/>
-      <c r="AC67" s="120"/>
-      <c r="AD67" s="120" t="s">
+      <c r="AB67" s="107"/>
+      <c r="AC67" s="107"/>
+      <c r="AD67" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="AE67" s="120"/>
-      <c r="AF67" s="120"/>
-      <c r="AG67" s="120" t="s">
+      <c r="AE67" s="107"/>
+      <c r="AF67" s="107"/>
+      <c r="AG67" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="AH67" s="120"/>
-      <c r="AI67" s="120"/>
-      <c r="AJ67" s="120" t="s">
+      <c r="AH67" s="107"/>
+      <c r="AI67" s="107"/>
+      <c r="AJ67" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="AK67" s="120"/>
-      <c r="AL67" s="120"/>
-      <c r="AM67" s="120" t="s">
+      <c r="AK67" s="107"/>
+      <c r="AL67" s="107"/>
+      <c r="AM67" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="AN67" s="120"/>
-      <c r="AO67" s="120"/>
+      <c r="AN67" s="107"/>
+      <c r="AO67" s="107"/>
     </row>
     <row r="68" spans="1:41" ht="70">
-      <c r="A68" s="126" t="s">
+      <c r="A68" s="108" t="s">
         <v>128</v>
       </c>
-      <c r="B68" s="127"/>
+      <c r="B68" s="109"/>
       <c r="C68" s="86" t="s">
         <v>99</v>
       </c>
@@ -7462,8 +7514,8 @@
       </c>
     </row>
     <row r="69" spans="1:41" ht="16" thickBot="1">
-      <c r="A69" s="128"/>
-      <c r="B69" s="129"/>
+      <c r="A69" s="110"/>
+      <c r="B69" s="111"/>
       <c r="C69" s="86">
         <v>23</v>
       </c>
@@ -7583,10 +7635,10 @@
       </c>
     </row>
     <row r="70" spans="1:41" ht="16" thickTop="1">
-      <c r="A70" s="123" t="s">
+      <c r="A70" s="112" t="s">
         <v>125</v>
       </c>
-      <c r="B70" s="123"/>
+      <c r="B70" s="112"/>
       <c r="C70">
         <f xml:space="preserve"> C69/115</f>
         <v>0.2</v>
@@ -7745,10 +7797,10 @@
       </c>
     </row>
     <row r="71" spans="1:41">
-      <c r="A71" s="124" t="s">
+      <c r="A71" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="B71" s="124"/>
+      <c r="B71" s="113"/>
       <c r="C71">
         <f xml:space="preserve"> C70*65</f>
         <v>13</v>
@@ -7907,10 +7959,10 @@
       </c>
     </row>
     <row r="72" spans="1:41">
-      <c r="A72" s="125" t="s">
+      <c r="A72" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="B72" s="125"/>
+      <c r="B72" s="114"/>
       <c r="C72" s="80">
         <f xml:space="preserve"> 65-C71</f>
         <v>52</v>
@@ -8075,23 +8127,41 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="AJ67:AL67"/>
-    <mergeCell ref="AM67:AO67"/>
-    <mergeCell ref="A68:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="AD67:AF67"/>
-    <mergeCell ref="AG67:AI67"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="R67:T67"/>
-    <mergeCell ref="U67:W67"/>
-    <mergeCell ref="X67:Z67"/>
-    <mergeCell ref="AA67:AC67"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="A3:A56"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
     <mergeCell ref="AM55:AO55"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A59:B59"/>
@@ -8108,41 +8178,23 @@
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="L55:N55"/>
     <mergeCell ref="O55:Q55"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="A3:A56"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="R67:T67"/>
+    <mergeCell ref="U67:W67"/>
+    <mergeCell ref="X67:Z67"/>
+    <mergeCell ref="AA67:AC67"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="AJ67:AL67"/>
+    <mergeCell ref="AM67:AO67"/>
+    <mergeCell ref="A68:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="AD67:AF67"/>
+    <mergeCell ref="AG67:AI67"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8187,37 +8239,37 @@
     <row r="1" spans="1:24" ht="34" customHeight="1">
       <c r="A1" s="57"/>
       <c r="B1" s="57"/>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="109" t="s">
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="109" t="s">
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
       <c r="T1" s="71" t="s">
         <v>92</v>
       </c>
@@ -8230,16 +8282,16 @@
       <c r="W1" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="X1" s="108" t="s">
+      <c r="X1" s="123" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="144">
       <c r="A2" s="57"/>
       <c r="B2" s="57"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -8294,16 +8346,16 @@
       <c r="W2" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="X2" s="108"/>
+      <c r="X2" s="123"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="105">
-        <v>1</v>
-      </c>
-      <c r="C3" s="108" t="s">
+      <c r="B3" s="120">
+        <v>1</v>
+      </c>
+      <c r="C3" s="123" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="54">
@@ -8371,9 +8423,9 @@
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="111"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="108"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="123"/>
       <c r="D4" s="54">
         <v>2010</v>
       </c>
@@ -8439,9 +8491,9 @@
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="111"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="108"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="123"/>
       <c r="D5" s="25">
         <v>2014</v>
       </c>
@@ -8507,11 +8559,11 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1">
-      <c r="A6" s="111"/>
-      <c r="B6" s="105">
+      <c r="A6" s="130"/>
+      <c r="B6" s="120">
         <v>2</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="123" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="54">
@@ -8579,9 +8631,9 @@
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="111"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="108"/>
+      <c r="A7" s="130"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="54">
         <v>2010</v>
       </c>
@@ -8647,9 +8699,9 @@
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="111"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="108"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="25">
         <v>2014</v>
       </c>
@@ -8715,11 +8767,11 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A9" s="111"/>
-      <c r="B9" s="105">
+      <c r="A9" s="130"/>
+      <c r="B9" s="120">
         <v>3</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="123" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="54">
@@ -8787,9 +8839,9 @@
       </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="111"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="108"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="123"/>
       <c r="D10" s="54">
         <v>2010</v>
       </c>
@@ -8855,9 +8907,9 @@
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="111"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="108"/>
+      <c r="A11" s="130"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="123"/>
       <c r="D11" s="25">
         <v>2014</v>
       </c>
@@ -8923,11 +8975,11 @@
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="111"/>
-      <c r="B12" s="105">
+      <c r="A12" s="130"/>
+      <c r="B12" s="120">
         <v>4</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="123" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="54">
@@ -8995,9 +9047,9 @@
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="111"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="108"/>
+      <c r="A13" s="130"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="123"/>
       <c r="D13" s="54">
         <v>2010</v>
       </c>
@@ -9063,9 +9115,9 @@
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="111"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
+      <c r="A14" s="130"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="123"/>
       <c r="D14" s="25">
         <v>2014</v>
       </c>
@@ -9131,11 +9183,11 @@
       </c>
     </row>
     <row r="15" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A15" s="111"/>
-      <c r="B15" s="105">
+      <c r="A15" s="130"/>
+      <c r="B15" s="120">
         <v>5</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="123" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="54">
@@ -9203,9 +9255,9 @@
       </c>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="111"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="108"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="123"/>
       <c r="D16" s="54">
         <v>2010</v>
       </c>
@@ -9271,9 +9323,9 @@
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="111"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="108"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="123"/>
       <c r="D17" s="25">
         <v>2014</v>
       </c>
@@ -9339,11 +9391,11 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A18" s="111"/>
-      <c r="B18" s="105">
+      <c r="A18" s="130"/>
+      <c r="B18" s="120">
         <v>6</v>
       </c>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="123" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="54">
@@ -9411,9 +9463,9 @@
       </c>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="111"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="108"/>
+      <c r="A19" s="130"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="123"/>
       <c r="D19" s="54">
         <v>2010</v>
       </c>
@@ -9479,9 +9531,9 @@
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="111"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="108"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="123"/>
       <c r="D20" s="25">
         <v>2014</v>
       </c>
@@ -9547,11 +9599,11 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A21" s="111"/>
-      <c r="B21" s="105">
+      <c r="A21" s="130"/>
+      <c r="B21" s="120">
         <v>7</v>
       </c>
-      <c r="C21" s="108" t="s">
+      <c r="C21" s="123" t="s">
         <v>70</v>
       </c>
       <c r="D21" s="54">
@@ -9619,9 +9671,9 @@
       </c>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="111"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="108"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="123"/>
       <c r="D22" s="54">
         <v>2010</v>
       </c>
@@ -9687,9 +9739,9 @@
       </c>
     </row>
     <row r="23" spans="1:24">
-      <c r="A23" s="111"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="108"/>
+      <c r="A23" s="130"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="123"/>
       <c r="D23" s="25">
         <v>2014</v>
       </c>
@@ -9755,11 +9807,11 @@
       </c>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="111"/>
-      <c r="B24" s="105">
+      <c r="A24" s="130"/>
+      <c r="B24" s="120">
         <v>8</v>
       </c>
-      <c r="C24" s="114" t="s">
+      <c r="C24" s="124" t="s">
         <v>54</v>
       </c>
       <c r="D24" s="54">
@@ -9827,9 +9879,9 @@
       </c>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="111"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="115"/>
+      <c r="A25" s="130"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="125"/>
       <c r="D25" s="54">
         <v>2010</v>
       </c>
@@ -9895,9 +9947,9 @@
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="111"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="116"/>
+      <c r="A26" s="130"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="126"/>
       <c r="D26" s="25">
         <v>2014</v>
       </c>
@@ -9963,11 +10015,11 @@
       </c>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="111"/>
-      <c r="B27" s="105">
+      <c r="A27" s="130"/>
+      <c r="B27" s="120">
         <v>9</v>
       </c>
-      <c r="C27" s="108" t="s">
+      <c r="C27" s="123" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="54">
@@ -10035,9 +10087,9 @@
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="111"/>
-      <c r="B28" s="106"/>
-      <c r="C28" s="108"/>
+      <c r="A28" s="130"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="123"/>
       <c r="D28" s="54">
         <v>2010</v>
       </c>
@@ -10103,9 +10155,9 @@
       </c>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="111"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="108"/>
+      <c r="A29" s="130"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="123"/>
       <c r="D29" s="25">
         <v>2014</v>
       </c>
@@ -10171,11 +10223,11 @@
       </c>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="111"/>
-      <c r="B30" s="105">
+      <c r="A30" s="130"/>
+      <c r="B30" s="120">
         <v>10</v>
       </c>
-      <c r="C30" s="108" t="s">
+      <c r="C30" s="123" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="54">
@@ -10243,9 +10295,9 @@
       </c>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="111"/>
-      <c r="B31" s="106"/>
-      <c r="C31" s="108"/>
+      <c r="A31" s="130"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="123"/>
       <c r="D31" s="54">
         <v>2010</v>
       </c>
@@ -10311,9 +10363,9 @@
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="111"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="108"/>
+      <c r="A32" s="130"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="123"/>
       <c r="D32" s="25">
         <v>2014</v>
       </c>
@@ -10379,11 +10431,11 @@
       </c>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" s="111"/>
-      <c r="B33" s="105">
+      <c r="A33" s="130"/>
+      <c r="B33" s="120">
         <v>11</v>
       </c>
-      <c r="C33" s="108" t="s">
+      <c r="C33" s="123" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="54">
@@ -10451,9 +10503,9 @@
       </c>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" s="111"/>
-      <c r="B34" s="106"/>
-      <c r="C34" s="108"/>
+      <c r="A34" s="130"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="123"/>
       <c r="D34" s="54">
         <v>2010</v>
       </c>
@@ -10519,9 +10571,9 @@
       </c>
     </row>
     <row r="35" spans="1:41">
-      <c r="A35" s="111"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="108"/>
+      <c r="A35" s="130"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="123"/>
       <c r="D35" s="25">
         <v>2014</v>
       </c>
@@ -10587,11 +10639,11 @@
       </c>
     </row>
     <row r="36" spans="1:41">
-      <c r="A36" s="111"/>
-      <c r="B36" s="105">
+      <c r="A36" s="130"/>
+      <c r="B36" s="120">
         <v>12</v>
       </c>
-      <c r="C36" s="108" t="s">
+      <c r="C36" s="123" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="54">
@@ -10659,9 +10711,9 @@
       </c>
     </row>
     <row r="37" spans="1:41">
-      <c r="A37" s="111"/>
-      <c r="B37" s="106"/>
-      <c r="C37" s="108"/>
+      <c r="A37" s="130"/>
+      <c r="B37" s="121"/>
+      <c r="C37" s="123"/>
       <c r="D37" s="54">
         <v>2010</v>
       </c>
@@ -10727,9 +10779,9 @@
       </c>
     </row>
     <row r="38" spans="1:41">
-      <c r="A38" s="111"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="108"/>
+      <c r="A38" s="130"/>
+      <c r="B38" s="122"/>
+      <c r="C38" s="123"/>
       <c r="D38" s="25">
         <v>2014</v>
       </c>
@@ -10795,11 +10847,11 @@
       </c>
     </row>
     <row r="39" spans="1:41">
-      <c r="A39" s="111"/>
-      <c r="B39" s="105">
+      <c r="A39" s="130"/>
+      <c r="B39" s="120">
         <v>13</v>
       </c>
-      <c r="C39" s="108" t="s">
+      <c r="C39" s="123" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="54">
@@ -10867,9 +10919,9 @@
       </c>
     </row>
     <row r="40" spans="1:41">
-      <c r="A40" s="111"/>
-      <c r="B40" s="106"/>
-      <c r="C40" s="108"/>
+      <c r="A40" s="130"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="123"/>
       <c r="D40" s="54">
         <v>2010</v>
       </c>
@@ -10935,9 +10987,9 @@
       </c>
     </row>
     <row r="41" spans="1:41">
-      <c r="A41" s="111"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="108"/>
+      <c r="A41" s="130"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="123"/>
       <c r="D41" s="25">
         <v>2014</v>
       </c>
@@ -11003,79 +11055,79 @@
       </c>
     </row>
     <row r="42" spans="1:41">
-      <c r="A42" s="111"/>
+      <c r="A42" s="130"/>
     </row>
     <row r="43" spans="1:41" s="75" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A43" s="111"/>
+      <c r="A43" s="130"/>
       <c r="B43" s="73"/>
-      <c r="C43" s="120" t="s">
+      <c r="C43" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="120" t="s">
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="120"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="120" t="s">
+      <c r="G43" s="107"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="J43" s="120"/>
-      <c r="K43" s="120"/>
-      <c r="L43" s="120" t="s">
+      <c r="J43" s="107"/>
+      <c r="K43" s="107"/>
+      <c r="L43" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="M43" s="120"/>
-      <c r="N43" s="120"/>
-      <c r="O43" s="120" t="s">
+      <c r="M43" s="107"/>
+      <c r="N43" s="107"/>
+      <c r="O43" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="P43" s="120"/>
-      <c r="Q43" s="120"/>
-      <c r="R43" s="117" t="s">
+      <c r="P43" s="107"/>
+      <c r="Q43" s="107"/>
+      <c r="R43" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="S43" s="118"/>
-      <c r="T43" s="119"/>
-      <c r="U43" s="120" t="s">
+      <c r="S43" s="116"/>
+      <c r="T43" s="117"/>
+      <c r="U43" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="V43" s="120"/>
-      <c r="W43" s="120"/>
-      <c r="X43" s="117" t="s">
+      <c r="V43" s="107"/>
+      <c r="W43" s="107"/>
+      <c r="X43" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="Y43" s="118"/>
-      <c r="Z43" s="119"/>
-      <c r="AA43" s="120" t="s">
+      <c r="Y43" s="116"/>
+      <c r="Z43" s="117"/>
+      <c r="AA43" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="AB43" s="120"/>
-      <c r="AC43" s="120"/>
-      <c r="AD43" s="120" t="s">
+      <c r="AB43" s="107"/>
+      <c r="AC43" s="107"/>
+      <c r="AD43" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="AE43" s="120"/>
-      <c r="AF43" s="120"/>
-      <c r="AG43" s="120" t="s">
+      <c r="AE43" s="107"/>
+      <c r="AF43" s="107"/>
+      <c r="AG43" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="AH43" s="120"/>
-      <c r="AI43" s="120"/>
-      <c r="AJ43" s="120" t="s">
+      <c r="AH43" s="107"/>
+      <c r="AI43" s="107"/>
+      <c r="AJ43" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="AK43" s="120"/>
-      <c r="AL43" s="120"/>
-      <c r="AM43" s="120" t="s">
+      <c r="AK43" s="107"/>
+      <c r="AL43" s="107"/>
+      <c r="AM43" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="AN43" s="120"/>
-      <c r="AO43" s="120"/>
+      <c r="AN43" s="107"/>
+      <c r="AO43" s="107"/>
     </row>
     <row r="44" spans="1:41" s="75" customFormat="1" ht="70">
-      <c r="A44" s="112"/>
+      <c r="A44" s="131"/>
       <c r="B44" s="73"/>
       <c r="C44" s="73" t="s">
         <v>72</v>
@@ -11316,10 +11368,10 @@
       </c>
     </row>
     <row r="46" spans="1:41" s="79" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A46" s="121" t="s">
+      <c r="A46" s="118" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="122"/>
+      <c r="B46" s="119"/>
       <c r="C46" s="79">
         <v>2006</v>
       </c>
@@ -11356,10 +11408,10 @@
       <c r="Y46" s="100"/>
     </row>
     <row r="47" spans="1:41" ht="16" thickTop="1">
-      <c r="A47" s="123" t="s">
+      <c r="A47" s="112" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="123"/>
+      <c r="B47" s="112"/>
       <c r="C47">
         <f xml:space="preserve"> C45/115</f>
         <v>3.4782608695652174E-2</v>
@@ -11518,10 +11570,10 @@
       </c>
     </row>
     <row r="48" spans="1:41">
-      <c r="A48" s="124" t="s">
+      <c r="A48" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="124"/>
+      <c r="B48" s="113"/>
       <c r="C48">
         <f xml:space="preserve"> C47*72</f>
         <v>2.5043478260869567</v>
@@ -11680,10 +11732,10 @@
       </c>
     </row>
     <row r="49" spans="1:41" s="80" customFormat="1">
-      <c r="A49" s="125" t="s">
+      <c r="A49" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="B49" s="125"/>
+      <c r="B49" s="114"/>
       <c r="C49" s="80">
         <f xml:space="preserve"> 72-C48</f>
         <v>69.495652173913044</v>
@@ -11993,77 +12045,77 @@
       <c r="X54" s="85"/>
     </row>
     <row r="55" spans="1:41">
-      <c r="C55" s="120" t="s">
+      <c r="C55" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="120"/>
-      <c r="E55" s="120"/>
-      <c r="F55" s="117" t="s">
+      <c r="D55" s="107"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="118"/>
-      <c r="H55" s="119"/>
-      <c r="I55" s="120" t="s">
+      <c r="G55" s="116"/>
+      <c r="H55" s="117"/>
+      <c r="I55" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="J55" s="120"/>
-      <c r="K55" s="120"/>
-      <c r="L55" s="120" t="s">
+      <c r="J55" s="107"/>
+      <c r="K55" s="107"/>
+      <c r="L55" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="M55" s="120"/>
-      <c r="N55" s="120"/>
-      <c r="O55" s="120" t="s">
+      <c r="M55" s="107"/>
+      <c r="N55" s="107"/>
+      <c r="O55" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="P55" s="120"/>
-      <c r="Q55" s="120"/>
-      <c r="R55" s="117" t="s">
+      <c r="P55" s="107"/>
+      <c r="Q55" s="107"/>
+      <c r="R55" s="115" t="s">
         <v>87</v>
       </c>
-      <c r="S55" s="118"/>
-      <c r="T55" s="119"/>
-      <c r="U55" s="120" t="s">
+      <c r="S55" s="116"/>
+      <c r="T55" s="117"/>
+      <c r="U55" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="V55" s="120"/>
-      <c r="W55" s="120"/>
-      <c r="X55" s="120" t="s">
+      <c r="V55" s="107"/>
+      <c r="W55" s="107"/>
+      <c r="X55" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="Y55" s="120"/>
-      <c r="Z55" s="120"/>
-      <c r="AA55" s="120" t="s">
+      <c r="Y55" s="107"/>
+      <c r="Z55" s="107"/>
+      <c r="AA55" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="AB55" s="120"/>
-      <c r="AC55" s="120"/>
-      <c r="AD55" s="120" t="s">
+      <c r="AB55" s="107"/>
+      <c r="AC55" s="107"/>
+      <c r="AD55" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="AE55" s="120"/>
-      <c r="AF55" s="120"/>
-      <c r="AG55" s="120" t="s">
+      <c r="AE55" s="107"/>
+      <c r="AF55" s="107"/>
+      <c r="AG55" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="AH55" s="120"/>
-      <c r="AI55" s="120"/>
-      <c r="AJ55" s="120" t="s">
+      <c r="AH55" s="107"/>
+      <c r="AI55" s="107"/>
+      <c r="AJ55" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="AK55" s="120"/>
-      <c r="AL55" s="120"/>
-      <c r="AM55" s="120" t="s">
+      <c r="AK55" s="107"/>
+      <c r="AL55" s="107"/>
+      <c r="AM55" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="AN55" s="120"/>
-      <c r="AO55" s="120"/>
+      <c r="AN55" s="107"/>
+      <c r="AO55" s="107"/>
     </row>
     <row r="56" spans="1:41" ht="70">
-      <c r="A56" s="126" t="s">
+      <c r="A56" s="108" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="127"/>
+      <c r="B56" s="109"/>
       <c r="C56" s="74" t="s">
         <v>99</v>
       </c>
@@ -12183,8 +12235,8 @@
       </c>
     </row>
     <row r="57" spans="1:41" ht="16" thickBot="1">
-      <c r="A57" s="128"/>
-      <c r="B57" s="129"/>
+      <c r="A57" s="110"/>
+      <c r="B57" s="111"/>
       <c r="C57" s="74">
         <v>23</v>
       </c>
@@ -12304,10 +12356,10 @@
       </c>
     </row>
     <row r="58" spans="1:41" ht="16" thickTop="1">
-      <c r="A58" s="123" t="s">
+      <c r="A58" s="112" t="s">
         <v>125</v>
       </c>
-      <c r="B58" s="123"/>
+      <c r="B58" s="112"/>
       <c r="C58">
         <f xml:space="preserve"> C57/115</f>
         <v>0.2</v>
@@ -12466,10 +12518,10 @@
       </c>
     </row>
     <row r="59" spans="1:41">
-      <c r="A59" s="124" t="s">
+      <c r="A59" s="113" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="124"/>
+      <c r="B59" s="113"/>
       <c r="C59">
         <f xml:space="preserve"> C58*65</f>
         <v>13</v>
@@ -12628,10 +12680,10 @@
       </c>
     </row>
     <row r="60" spans="1:41">
-      <c r="A60" s="125" t="s">
+      <c r="A60" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="125"/>
+      <c r="B60" s="114"/>
       <c r="C60" s="80">
         <f xml:space="preserve"> 65-C59</f>
         <v>52</v>
@@ -12796,6 +12848,59 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="AD43:AF43"/>
+    <mergeCell ref="AG43:AI43"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="AJ43:AL43"/>
+    <mergeCell ref="AM43:AO43"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="AA43:AC43"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="AM55:AO55"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="AD55:AF55"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="A3:A44"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A56:B57"/>
     <mergeCell ref="A46:B46"/>
@@ -12812,59 +12917,6 @@
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="L55:N55"/>
     <mergeCell ref="R55:T55"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="AM55:AO55"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="AD55:AF55"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="A3:A44"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="AJ43:AL43"/>
-    <mergeCell ref="AM43:AO43"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="AA43:AC43"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="AD43:AF43"/>
-    <mergeCell ref="AG43:AI43"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="O43:Q43"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="B30:B32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12896,44 +12948,44 @@
     <row r="1" spans="1:25">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="109" t="s">
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="109" t="s">
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
     </row>
     <row r="2" spans="1:25" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -12987,7 +13039,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="129" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -13055,7 +13107,7 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="111"/>
+      <c r="A4" s="130"/>
       <c r="B4" s="45" t="s">
         <v>55</v>
       </c>
@@ -13121,7 +13173,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A5" s="111"/>
+      <c r="A5" s="130"/>
       <c r="B5" s="45" t="s">
         <v>57</v>
       </c>
@@ -13187,7 +13239,7 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="111"/>
+      <c r="A6" s="130"/>
       <c r="B6" s="45" t="s">
         <v>58</v>
       </c>
@@ -13253,7 +13305,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A7" s="111"/>
+      <c r="A7" s="130"/>
       <c r="B7" s="45" t="s">
         <v>59</v>
       </c>
@@ -13319,7 +13371,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1">
-      <c r="A8" s="111"/>
+      <c r="A8" s="130"/>
       <c r="B8" s="45" t="s">
         <v>60</v>
       </c>
@@ -13385,7 +13437,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A9" s="111"/>
+      <c r="A9" s="130"/>
       <c r="B9" s="45" t="s">
         <v>61</v>
       </c>
@@ -13451,7 +13503,7 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="111"/>
+      <c r="A10" s="130"/>
       <c r="B10" s="45" t="s">
         <v>62</v>
       </c>
@@ -13517,7 +13569,7 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="111"/>
+      <c r="A11" s="130"/>
       <c r="B11" s="45" t="s">
         <v>56</v>
       </c>
@@ -13583,7 +13635,7 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" s="111"/>
+      <c r="A12" s="130"/>
       <c r="B12" s="45" t="s">
         <v>63</v>
       </c>
@@ -13649,7 +13701,7 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="111"/>
+      <c r="A13" s="130"/>
       <c r="B13" s="45" t="s">
         <v>64</v>
       </c>
@@ -13715,7 +13767,7 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" s="111"/>
+      <c r="A14" s="130"/>
       <c r="B14" s="45" t="s">
         <v>65</v>
       </c>
@@ -13781,7 +13833,7 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="111"/>
+      <c r="A15" s="130"/>
       <c r="B15" s="45" t="s">
         <v>66</v>
       </c>
@@ -14888,44 +14940,44 @@
     <row r="1" spans="1:19">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="109" t="s">
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="109" t="s">
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
     </row>
     <row r="2" spans="1:19" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -14970,7 +15022,7 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="129" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="44" t="s">
@@ -15029,7 +15081,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="24">
-      <c r="A4" s="111"/>
+      <c r="A4" s="130"/>
       <c r="B4" s="45" t="s">
         <v>55</v>
       </c>
@@ -15086,7 +15138,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A5" s="111"/>
+      <c r="A5" s="130"/>
       <c r="B5" s="45" t="s">
         <v>57</v>
       </c>
@@ -15143,7 +15195,7 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="111"/>
+      <c r="A6" s="130"/>
       <c r="B6" s="45" t="s">
         <v>58</v>
       </c>
@@ -15200,7 +15252,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A7" s="111"/>
+      <c r="A7" s="130"/>
       <c r="B7" s="45" t="s">
         <v>59</v>
       </c>
@@ -15257,7 +15309,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="24">
-      <c r="A8" s="111"/>
+      <c r="A8" s="130"/>
       <c r="B8" s="45" t="s">
         <v>60</v>
       </c>
@@ -15314,7 +15366,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A9" s="111"/>
+      <c r="A9" s="130"/>
       <c r="B9" s="45" t="s">
         <v>61</v>
       </c>
@@ -15371,7 +15423,7 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="111"/>
+      <c r="A10" s="130"/>
       <c r="B10" s="45" t="s">
         <v>62</v>
       </c>
@@ -15428,7 +15480,7 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="111"/>
+      <c r="A11" s="130"/>
       <c r="B11" s="45" t="s">
         <v>56</v>
       </c>
@@ -15485,7 +15537,7 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="111"/>
+      <c r="A12" s="130"/>
       <c r="B12" s="45" t="s">
         <v>63</v>
       </c>
@@ -15542,7 +15594,7 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="111"/>
+      <c r="A13" s="130"/>
       <c r="B13" s="45" t="s">
         <v>64</v>
       </c>
@@ -15599,7 +15651,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="111"/>
+      <c r="A14" s="130"/>
       <c r="B14" s="45" t="s">
         <v>65</v>
       </c>
@@ -15656,7 +15708,7 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="111"/>
+      <c r="A15" s="130"/>
       <c r="B15" s="45" t="s">
         <v>66</v>
       </c>
@@ -16472,44 +16524,44 @@
     <row r="1" spans="1:19">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="109" t="s">
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="109" t="s">
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
     </row>
     <row r="2" spans="1:19" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -16554,7 +16606,7 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="129" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="44" t="s">
@@ -16613,7 +16665,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="24">
-      <c r="A4" s="111"/>
+      <c r="A4" s="130"/>
       <c r="B4" s="45" t="s">
         <v>55</v>
       </c>
@@ -16670,7 +16722,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="24">
-      <c r="A5" s="111"/>
+      <c r="A5" s="130"/>
       <c r="B5" s="45" t="s">
         <v>57</v>
       </c>
@@ -16727,7 +16779,7 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="111"/>
+      <c r="A6" s="130"/>
       <c r="B6" s="45" t="s">
         <v>58</v>
       </c>
@@ -16784,7 +16836,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="24">
-      <c r="A7" s="111"/>
+      <c r="A7" s="130"/>
       <c r="B7" s="45" t="s">
         <v>59</v>
       </c>
@@ -16841,7 +16893,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="24">
-      <c r="A8" s="111"/>
+      <c r="A8" s="130"/>
       <c r="B8" s="45" t="s">
         <v>60</v>
       </c>
@@ -16897,8 +16949,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="111"/>
+    <row r="9" spans="1:19" ht="24">
+      <c r="A9" s="130"/>
       <c r="B9" s="45" t="s">
         <v>61</v>
       </c>
@@ -16955,7 +17007,7 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="111"/>
+      <c r="A10" s="130"/>
       <c r="B10" s="45" t="s">
         <v>62</v>
       </c>
@@ -17012,7 +17064,7 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="111"/>
+      <c r="A11" s="130"/>
       <c r="B11" s="45" t="s">
         <v>56</v>
       </c>
@@ -17069,7 +17121,7 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="111"/>
+      <c r="A12" s="130"/>
       <c r="B12" s="45" t="s">
         <v>63</v>
       </c>
@@ -17126,7 +17178,7 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="111"/>
+      <c r="A13" s="130"/>
       <c r="B13" s="45" t="s">
         <v>64</v>
       </c>
@@ -17183,7 +17235,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="111"/>
+      <c r="A14" s="130"/>
       <c r="B14" s="45" t="s">
         <v>65</v>
       </c>
@@ -17240,7 +17292,7 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="111"/>
+      <c r="A15" s="130"/>
       <c r="B15" s="45" t="s">
         <v>66</v>
       </c>
@@ -17362,171 +17414,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="20" customHeight="1">
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
     </row>
     <row r="2" spans="1:44" ht="20" customHeight="1">
-      <c r="C2" s="105">
-        <v>1</v>
-      </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="105">
+      <c r="C2" s="120">
+        <v>1</v>
+      </c>
+      <c r="D2" s="121"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="120">
         <v>2</v>
       </c>
-      <c r="G2" s="106"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="105">
+      <c r="G2" s="121"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="120">
         <v>3</v>
       </c>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="105">
+      <c r="J2" s="121"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="120">
         <v>4</v>
       </c>
-      <c r="M2" s="106"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="105">
+      <c r="M2" s="121"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="120">
         <v>5</v>
       </c>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="105">
+      <c r="P2" s="121"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="120">
         <v>6</v>
       </c>
-      <c r="S2" s="106"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="105">
+      <c r="S2" s="121"/>
+      <c r="T2" s="122"/>
+      <c r="U2" s="120">
         <v>7</v>
       </c>
-      <c r="V2" s="106"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="105">
+      <c r="V2" s="121"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="120">
         <v>8</v>
       </c>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="105">
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="122"/>
+      <c r="AA2" s="120">
         <v>14</v>
       </c>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="105">
+      <c r="AB2" s="121"/>
+      <c r="AC2" s="122"/>
+      <c r="AD2" s="120">
         <v>9</v>
       </c>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="105">
+      <c r="AE2" s="121"/>
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="120">
         <v>10</v>
       </c>
-      <c r="AH2" s="106"/>
-      <c r="AI2" s="107"/>
-      <c r="AJ2" s="105">
+      <c r="AH2" s="121"/>
+      <c r="AI2" s="122"/>
+      <c r="AJ2" s="120">
         <v>11</v>
       </c>
-      <c r="AK2" s="106"/>
-      <c r="AL2" s="107"/>
-      <c r="AM2" s="105">
+      <c r="AK2" s="121"/>
+      <c r="AL2" s="122"/>
+      <c r="AM2" s="120">
         <v>12</v>
       </c>
-      <c r="AN2" s="106"/>
-      <c r="AO2" s="107"/>
-      <c r="AP2" s="105">
+      <c r="AN2" s="121"/>
+      <c r="AO2" s="122"/>
+      <c r="AP2" s="120">
         <v>13</v>
       </c>
-      <c r="AQ2" s="106"/>
-      <c r="AR2" s="107"/>
+      <c r="AQ2" s="121"/>
+      <c r="AR2" s="122"/>
     </row>
     <row r="3" spans="1:44" s="14" customFormat="1" ht="20" customHeight="1">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108" t="s">
+      <c r="B3" s="123"/>
+      <c r="C3" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108" t="s">
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108" t="s">
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108" t="s">
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108" t="s">
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108" t="s">
+      <c r="P3" s="123"/>
+      <c r="Q3" s="123"/>
+      <c r="R3" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108" t="s">
+      <c r="S3" s="123"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108" t="s">
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="114" t="s">
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="123"/>
+      <c r="AA3" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="108" t="s">
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="108" t="s">
+      <c r="AE3" s="123"/>
+      <c r="AF3" s="123"/>
+      <c r="AG3" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="108"/>
-      <c r="AI3" s="108"/>
-      <c r="AJ3" s="108" t="s">
+      <c r="AH3" s="123"/>
+      <c r="AI3" s="123"/>
+      <c r="AJ3" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="AK3" s="108"/>
-      <c r="AL3" s="108"/>
-      <c r="AM3" s="108" t="s">
+      <c r="AK3" s="123"/>
+      <c r="AL3" s="123"/>
+      <c r="AM3" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="108"/>
-      <c r="AO3" s="108"/>
-      <c r="AP3" s="108" t="s">
+      <c r="AN3" s="123"/>
+      <c r="AO3" s="123"/>
+      <c r="AP3" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="AQ3" s="108"/>
-      <c r="AR3" s="108"/>
+      <c r="AQ3" s="123"/>
+      <c r="AR3" s="123"/>
     </row>
     <row r="4" spans="1:44" s="14" customFormat="1" ht="20" customHeight="1">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="108"/>
+      <c r="B4" s="123"/>
       <c r="C4" s="14">
         <v>2006</v>
       </c>
@@ -17655,10 +17707,10 @@
       </c>
     </row>
     <row r="5" spans="1:44" s="14" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="108"/>
+      <c r="B5" s="123"/>
       <c r="C5" s="14">
         <v>4</v>
       </c>
@@ -17787,7 +17839,7 @@
       </c>
     </row>
     <row r="6" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="132" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -17921,7 +17973,7 @@
       </c>
     </row>
     <row r="7" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="113"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="16" t="s">
         <v>34</v>
       </c>
@@ -18053,7 +18105,7 @@
       </c>
     </row>
     <row r="8" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A8" s="113"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="16" t="s">
         <v>35</v>
       </c>
@@ -18185,7 +18237,7 @@
       </c>
     </row>
     <row r="9" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A9" s="113"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="15" t="s">
         <v>51</v>
       </c>
@@ -18317,7 +18369,7 @@
       </c>
     </row>
     <row r="10" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A10" s="113"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="16" t="s">
         <v>36</v>
       </c>
@@ -18449,7 +18501,7 @@
       </c>
     </row>
     <row r="11" spans="1:44" ht="20" customHeight="1">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="127" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -18583,7 +18635,7 @@
       </c>
     </row>
     <row r="12" spans="1:44" ht="20" customHeight="1">
-      <c r="A12" s="109"/>
+      <c r="A12" s="127"/>
       <c r="B12" s="6" t="s">
         <v>39</v>
       </c>
@@ -18715,7 +18767,7 @@
       </c>
     </row>
     <row r="13" spans="1:44" ht="20" customHeight="1">
-      <c r="A13" s="109"/>
+      <c r="A13" s="127"/>
       <c r="B13" s="6" t="s">
         <v>40</v>
       </c>
@@ -18847,7 +18899,7 @@
       </c>
     </row>
     <row r="14" spans="1:44" ht="20" customHeight="1">
-      <c r="A14" s="109"/>
+      <c r="A14" s="127"/>
       <c r="B14" s="6" t="s">
         <v>41</v>
       </c>
@@ -18979,7 +19031,7 @@
       </c>
     </row>
     <row r="15" spans="1:44" s="11" customFormat="1" ht="20" customHeight="1">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="128" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -19113,7 +19165,7 @@
       </c>
     </row>
     <row r="16" spans="1:44" s="11" customFormat="1" ht="20" customHeight="1">
-      <c r="A16" s="104"/>
+      <c r="A16" s="128"/>
       <c r="B16" s="10" t="s">
         <v>43</v>
       </c>
@@ -19245,7 +19297,7 @@
       </c>
     </row>
     <row r="17" spans="1:44" ht="20" customHeight="1">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="127" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -19379,7 +19431,7 @@
       </c>
     </row>
     <row r="18" spans="1:44" ht="20" customHeight="1">
-      <c r="A18" s="109"/>
+      <c r="A18" s="127"/>
       <c r="B18" s="6" t="s">
         <v>46</v>
       </c>
@@ -19511,7 +19563,7 @@
       </c>
     </row>
     <row r="19" spans="1:44" ht="20" customHeight="1">
-      <c r="A19" s="109"/>
+      <c r="A19" s="127"/>
       <c r="B19" s="6" t="s">
         <v>47</v>
       </c>
@@ -20169,6 +20221,29 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="R3:T3"/>
@@ -20182,29 +20257,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AA2:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20225,7 +20277,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.83203125" style="2" customWidth="1"/>
     <col min="2" max="4" width="10.83203125" style="2"/>
@@ -20234,7 +20286,7 @@
     <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="38">
+    <row r="1" spans="1:17" ht="60">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -20416,44 +20468,44 @@
     <row r="1" spans="1:19">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="109" t="s">
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="109" t="s">
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="128" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
+      <c r="R1" s="127"/>
+      <c r="S1" s="127"/>
     </row>
     <row r="2" spans="1:19" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -20498,13 +20550,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="105">
-        <v>1</v>
-      </c>
-      <c r="C3" s="108" t="s">
+      <c r="B3" s="120">
+        <v>1</v>
+      </c>
+      <c r="C3" s="123" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="14">
@@ -20557,9 +20609,9 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="111"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="108"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="123"/>
       <c r="D4" s="14">
         <v>2010</v>
       </c>
@@ -20610,9 +20662,9 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="111"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="108"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="123"/>
       <c r="D5" s="25">
         <v>2014</v>
       </c>
@@ -20663,11 +20715,11 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="111"/>
-      <c r="B6" s="105">
+      <c r="A6" s="130"/>
+      <c r="B6" s="120">
         <v>2</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="123" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="14">
@@ -20720,9 +20772,9 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="111"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="108"/>
+      <c r="A7" s="130"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="14">
         <v>2010</v>
       </c>
@@ -20773,9 +20825,9 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="111"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="108"/>
+      <c r="A8" s="130"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="25">
         <v>2014</v>
       </c>
@@ -20826,11 +20878,11 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="111"/>
-      <c r="B9" s="105">
+      <c r="A9" s="130"/>
+      <c r="B9" s="120">
         <v>3</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="123" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="14">
@@ -20883,9 +20935,9 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="111"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="108"/>
+      <c r="A10" s="130"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="123"/>
       <c r="D10" s="14">
         <v>2010</v>
       </c>
@@ -20936,9 +20988,9 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="111"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="108"/>
+      <c r="A11" s="130"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="123"/>
       <c r="D11" s="25">
         <v>2014</v>
       </c>
@@ -20989,11 +21041,11 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="111"/>
-      <c r="B12" s="105">
+      <c r="A12" s="130"/>
+      <c r="B12" s="120">
         <v>4</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="123" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="14">
@@ -21046,9 +21098,9 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="111"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="108"/>
+      <c r="A13" s="130"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="123"/>
       <c r="D13" s="14">
         <v>2010</v>
       </c>
@@ -21099,9 +21151,9 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="111"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
+      <c r="A14" s="130"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="123"/>
       <c r="D14" s="25">
         <v>2014</v>
       </c>
@@ -21152,11 +21204,11 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="111"/>
-      <c r="B15" s="105">
+      <c r="A15" s="130"/>
+      <c r="B15" s="120">
         <v>5</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="123" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="14">
@@ -21209,9 +21261,9 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="111"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="108"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="123"/>
       <c r="D16" s="14">
         <v>2010</v>
       </c>
@@ -21262,9 +21314,9 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="111"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="108"/>
+      <c r="A17" s="130"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="123"/>
       <c r="D17" s="25">
         <v>2014</v>
       </c>
@@ -21315,11 +21367,11 @@
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="111"/>
-      <c r="B18" s="105">
+      <c r="A18" s="130"/>
+      <c r="B18" s="120">
         <v>6</v>
       </c>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="123" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="14">
@@ -21372,9 +21424,9 @@
       </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="111"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="108"/>
+      <c r="A19" s="130"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="123"/>
       <c r="D19" s="14">
         <v>2010</v>
       </c>
@@ -21425,9 +21477,9 @@
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="111"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="108"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="123"/>
       <c r="D20" s="25">
         <v>2014</v>
       </c>
@@ -21478,11 +21530,11 @@
       </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="111"/>
-      <c r="B21" s="105">
+      <c r="A21" s="130"/>
+      <c r="B21" s="120">
         <v>7</v>
       </c>
-      <c r="C21" s="108" t="s">
+      <c r="C21" s="123" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="14">
@@ -21535,9 +21587,9 @@
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="111"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="108"/>
+      <c r="A22" s="130"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="123"/>
       <c r="D22" s="14">
         <v>2010</v>
       </c>
@@ -21588,9 +21640,9 @@
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="111"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="108"/>
+      <c r="A23" s="130"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="123"/>
       <c r="D23" s="25">
         <v>2014</v>
       </c>
@@ -21641,11 +21693,11 @@
       </c>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="111"/>
-      <c r="B24" s="105">
+      <c r="A24" s="130"/>
+      <c r="B24" s="120">
         <v>8</v>
       </c>
-      <c r="C24" s="108" t="s">
+      <c r="C24" s="123" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="14">
@@ -21698,9 +21750,9 @@
       </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="111"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="108"/>
+      <c r="A25" s="130"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="123"/>
       <c r="D25" s="14">
         <v>2010</v>
       </c>
@@ -21751,9 +21803,9 @@
       </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="111"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="108"/>
+      <c r="A26" s="130"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="123"/>
       <c r="D26" s="25">
         <v>2014</v>
       </c>
@@ -21804,11 +21856,11 @@
       </c>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="111"/>
-      <c r="B27" s="105">
+      <c r="A27" s="130"/>
+      <c r="B27" s="120">
         <v>14</v>
       </c>
-      <c r="C27" s="114" t="s">
+      <c r="C27" s="124" t="s">
         <v>54</v>
       </c>
       <c r="D27" s="14">
@@ -21861,9 +21913,9 @@
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="111"/>
-      <c r="B28" s="106"/>
-      <c r="C28" s="115"/>
+      <c r="A28" s="130"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="125"/>
       <c r="D28" s="14">
         <v>2010</v>
       </c>
@@ -21914,9 +21966,9 @@
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="111"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="116"/>
+      <c r="A29" s="130"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="126"/>
       <c r="D29" s="25">
         <v>2014</v>
       </c>
@@ -21967,11 +22019,11 @@
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="111"/>
-      <c r="B30" s="105">
+      <c r="A30" s="130"/>
+      <c r="B30" s="120">
         <v>9</v>
       </c>
-      <c r="C30" s="108" t="s">
+      <c r="C30" s="123" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="14">
@@ -22024,9 +22076,9 @@
       </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="111"/>
-      <c r="B31" s="106"/>
-      <c r="C31" s="108"/>
+      <c r="A31" s="130"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="123"/>
       <c r="D31" s="14">
         <v>2010</v>
       </c>
@@ -22077,9 +22129,9 @@
       </c>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="111"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="108"/>
+      <c r="A32" s="130"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="123"/>
       <c r="D32" s="25">
         <v>2014</v>
       </c>
@@ -22130,11 +22182,11 @@
       </c>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" s="111"/>
-      <c r="B33" s="105">
+      <c r="A33" s="130"/>
+      <c r="B33" s="120">
         <v>10</v>
       </c>
-      <c r="C33" s="108" t="s">
+      <c r="C33" s="123" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="14">
@@ -22187,9 +22239,9 @@
       </c>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" s="111"/>
-      <c r="B34" s="106"/>
-      <c r="C34" s="108"/>
+      <c r="A34" s="130"/>
+      <c r="B34" s="121"/>
+      <c r="C34" s="123"/>
       <c r="D34" s="14">
         <v>2010</v>
       </c>
@@ -22240,9 +22292,9 @@
       </c>
     </row>
     <row r="35" spans="1:41">
-      <c r="A35" s="111"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="108"/>
+      <c r="A35" s="130"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="123"/>
       <c r="D35" s="25">
         <v>2014</v>
       </c>
@@ -22293,11 +22345,11 @@
       </c>
     </row>
     <row r="36" spans="1:41">
-      <c r="A36" s="111"/>
-      <c r="B36" s="105">
+      <c r="A36" s="130"/>
+      <c r="B36" s="120">
         <v>11</v>
       </c>
-      <c r="C36" s="108" t="s">
+      <c r="C36" s="123" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="14">
@@ -22350,9 +22402,9 @@
       </c>
     </row>
     <row r="37" spans="1:41">
-      <c r="A37" s="111"/>
-      <c r="B37" s="106"/>
-      <c r="C37" s="108"/>
+      <c r="A37" s="130"/>
+      <c r="B37" s="121"/>
+      <c r="C37" s="123"/>
       <c r="D37" s="14">
         <v>2010</v>
       </c>
@@ -22403,9 +22455,9 @@
       </c>
     </row>
     <row r="38" spans="1:41">
-      <c r="A38" s="111"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="108"/>
+      <c r="A38" s="130"/>
+      <c r="B38" s="122"/>
+      <c r="C38" s="123"/>
       <c r="D38" s="25">
         <v>2014</v>
       </c>
@@ -22456,11 +22508,11 @@
       </c>
     </row>
     <row r="39" spans="1:41">
-      <c r="A39" s="111"/>
-      <c r="B39" s="105">
+      <c r="A39" s="130"/>
+      <c r="B39" s="120">
         <v>12</v>
       </c>
-      <c r="C39" s="108" t="s">
+      <c r="C39" s="123" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="14">
@@ -22513,9 +22565,9 @@
       </c>
     </row>
     <row r="40" spans="1:41">
-      <c r="A40" s="111"/>
-      <c r="B40" s="106"/>
-      <c r="C40" s="108"/>
+      <c r="A40" s="130"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="123"/>
       <c r="D40" s="14">
         <v>2010</v>
       </c>
@@ -22566,9 +22618,9 @@
       </c>
     </row>
     <row r="41" spans="1:41">
-      <c r="A41" s="111"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="108"/>
+      <c r="A41" s="130"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="123"/>
       <c r="D41" s="25">
         <v>2014</v>
       </c>
@@ -22619,11 +22671,11 @@
       </c>
     </row>
     <row r="42" spans="1:41">
-      <c r="A42" s="111"/>
-      <c r="B42" s="105">
+      <c r="A42" s="130"/>
+      <c r="B42" s="120">
         <v>13</v>
       </c>
-      <c r="C42" s="108" t="s">
+      <c r="C42" s="123" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="14">
@@ -22676,9 +22728,9 @@
       </c>
     </row>
     <row r="43" spans="1:41">
-      <c r="A43" s="111"/>
-      <c r="B43" s="106"/>
-      <c r="C43" s="108"/>
+      <c r="A43" s="130"/>
+      <c r="B43" s="121"/>
+      <c r="C43" s="123"/>
       <c r="D43" s="14">
         <v>2010</v>
       </c>
@@ -22729,9 +22781,9 @@
       </c>
     </row>
     <row r="44" spans="1:41">
-      <c r="A44" s="112"/>
-      <c r="B44" s="107"/>
-      <c r="C44" s="108"/>
+      <c r="A44" s="131"/>
+      <c r="B44" s="122"/>
+      <c r="C44" s="123"/>
       <c r="D44" s="25">
         <v>2014</v>
       </c>
@@ -22782,81 +22834,81 @@
       </c>
     </row>
     <row r="46" spans="1:41" ht="15.75" customHeight="1">
-      <c r="A46" s="108" t="s">
+      <c r="A46" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="108"/>
-      <c r="C46" s="108" t="s">
+      <c r="B46" s="123"/>
+      <c r="C46" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="108"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="108" t="s">
+      <c r="D46" s="123"/>
+      <c r="E46" s="123"/>
+      <c r="F46" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="108"/>
-      <c r="H46" s="108"/>
-      <c r="I46" s="108" t="s">
+      <c r="G46" s="123"/>
+      <c r="H46" s="123"/>
+      <c r="I46" s="123" t="s">
         <v>17</v>
       </c>
-      <c r="J46" s="108"/>
-      <c r="K46" s="108"/>
-      <c r="L46" s="108" t="s">
+      <c r="J46" s="123"/>
+      <c r="K46" s="123"/>
+      <c r="L46" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="M46" s="108"/>
-      <c r="N46" s="108"/>
-      <c r="O46" s="108" t="s">
+      <c r="M46" s="123"/>
+      <c r="N46" s="123"/>
+      <c r="O46" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="P46" s="108"/>
-      <c r="Q46" s="108"/>
-      <c r="R46" s="108" t="s">
+      <c r="P46" s="123"/>
+      <c r="Q46" s="123"/>
+      <c r="R46" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="S46" s="108"/>
-      <c r="T46" s="108"/>
-      <c r="U46" s="114" t="s">
+      <c r="S46" s="123"/>
+      <c r="T46" s="123"/>
+      <c r="U46" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="V46" s="115"/>
-      <c r="W46" s="116"/>
-      <c r="X46" s="114" t="s">
+      <c r="V46" s="125"/>
+      <c r="W46" s="126"/>
+      <c r="X46" s="124" t="s">
         <v>54</v>
       </c>
-      <c r="Y46" s="115"/>
-      <c r="Z46" s="116"/>
-      <c r="AA46" s="108" t="s">
+      <c r="Y46" s="125"/>
+      <c r="Z46" s="126"/>
+      <c r="AA46" s="123" t="s">
         <v>12</v>
       </c>
-      <c r="AB46" s="108"/>
-      <c r="AC46" s="108"/>
-      <c r="AD46" s="108" t="s">
+      <c r="AB46" s="123"/>
+      <c r="AC46" s="123"/>
+      <c r="AD46" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="AE46" s="108"/>
-      <c r="AF46" s="108"/>
-      <c r="AG46" s="108" t="s">
+      <c r="AE46" s="123"/>
+      <c r="AF46" s="123"/>
+      <c r="AG46" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="AH46" s="108"/>
-      <c r="AI46" s="108"/>
-      <c r="AJ46" s="108" t="s">
+      <c r="AH46" s="123"/>
+      <c r="AI46" s="123"/>
+      <c r="AJ46" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="AK46" s="108"/>
-      <c r="AL46" s="108"/>
-      <c r="AM46" s="108" t="s">
+      <c r="AK46" s="123"/>
+      <c r="AL46" s="123"/>
+      <c r="AM46" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="AN46" s="108"/>
-      <c r="AO46" s="108"/>
+      <c r="AN46" s="123"/>
+      <c r="AO46" s="123"/>
     </row>
     <row r="47" spans="1:41" ht="42.75" customHeight="1">
-      <c r="A47" s="108" t="s">
+      <c r="A47" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="108"/>
+      <c r="B47" s="123"/>
       <c r="C47" s="54" t="s">
         <v>72</v>
       </c>
@@ -22976,10 +23028,10 @@
       </c>
     </row>
     <row r="48" spans="1:41" ht="33" customHeight="1">
-      <c r="A48" s="108" t="s">
+      <c r="A48" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="108"/>
+      <c r="B48" s="123"/>
       <c r="C48" s="54">
         <v>4</v>
       </c>
@@ -23099,7 +23151,7 @@
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="131" t="s">
+      <c r="B49" s="134" t="s">
         <v>91</v>
       </c>
       <c r="C49" s="63">
@@ -23110,7 +23162,7 @@
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="124"/>
+      <c r="B50" s="113"/>
       <c r="C50" s="63">
         <v>2010</v>
       </c>
@@ -23119,7 +23171,7 @@
       </c>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="124"/>
+      <c r="B51" s="113"/>
       <c r="C51" s="63">
         <v>2014</v>
       </c>
@@ -23129,26 +23181,23 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="AA46:AC46"/>
+    <mergeCell ref="AD46:AF46"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="AG46:AI46"/>
+    <mergeCell ref="AJ46:AL46"/>
+    <mergeCell ref="AM46:AO46"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="U46:W46"/>
+    <mergeCell ref="X46:Z46"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="B42:B44"/>
@@ -23165,23 +23214,26 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="B27:B29"/>
-    <mergeCell ref="AG46:AI46"/>
-    <mergeCell ref="AJ46:AL46"/>
-    <mergeCell ref="AM46:AO46"/>
-    <mergeCell ref="O46:Q46"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="U46:W46"/>
-    <mergeCell ref="X46:Z46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="AA46:AC46"/>
-    <mergeCell ref="AD46:AF46"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23198,7 +23250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
@@ -23221,11 +23273,11 @@
       <c r="D1" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="123" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="70">
+    <row r="2" spans="1:7" ht="56">
       <c r="A2" s="72" t="s">
         <v>93</v>
       </c>
@@ -23238,8 +23290,8 @@
       <c r="D2" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="108"/>
-      <c r="G2" s="134" t="s">
+      <c r="E2" s="123"/>
+      <c r="G2" s="106" t="s">
         <v>185</v>
       </c>
     </row>
@@ -23259,11 +23311,11 @@
       <c r="E3" s="101" t="s">
         <v>131</v>
       </c>
-      <c r="F3" s="132">
+      <c r="F3" s="104">
         <f xml:space="preserve"> SQRT(C3)*2</f>
         <v>377.28503813429973</v>
       </c>
-      <c r="G3" s="133">
+      <c r="G3" s="105">
         <f>F3*1.4</f>
         <v>528.19905338801959</v>
       </c>
@@ -23284,11 +23336,11 @@
       <c r="E4" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="132">
+      <c r="F4" s="104">
         <f t="shared" ref="F4:F41" si="0" xml:space="preserve"> SQRT(C4)*2</f>
         <v>368.67329710734407</v>
       </c>
-      <c r="G4" s="133">
+      <c r="G4" s="105">
         <f t="shared" ref="G4:G43" si="1">F4*1.4</f>
         <v>516.14261595028165</v>
       </c>
@@ -23309,11 +23361,11 @@
       <c r="E5" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="132">
+      <c r="F5" s="104">
         <f t="shared" si="0"/>
         <v>338.04733396375127</v>
       </c>
-      <c r="G5" s="133">
+      <c r="G5" s="105">
         <f t="shared" si="1"/>
         <v>473.26626754925172</v>
       </c>
@@ -23334,11 +23386,11 @@
       <c r="E6" s="101" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="132">
+      <c r="F6" s="104">
         <f t="shared" si="0"/>
         <v>140.32818676231798</v>
       </c>
-      <c r="G6" s="133">
+      <c r="G6" s="105">
         <f t="shared" si="1"/>
         <v>196.45946146724518</v>
       </c>
@@ -23359,11 +23411,11 @@
       <c r="E7" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="F7" s="132">
+      <c r="F7" s="104">
         <f t="shared" si="0"/>
         <v>113.4195750300626</v>
       </c>
-      <c r="G7" s="133">
+      <c r="G7" s="105">
         <f t="shared" si="1"/>
         <v>158.78740504208764</v>
       </c>
@@ -23384,11 +23436,11 @@
       <c r="E8" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="F8" s="132">
+      <c r="F8" s="104">
         <f t="shared" si="0"/>
         <v>154.98387012847499</v>
       </c>
-      <c r="G8" s="133">
+      <c r="G8" s="105">
         <f t="shared" si="1"/>
         <v>216.97741817986497</v>
       </c>
@@ -23409,11 +23461,11 @@
       <c r="E9" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="F9" s="132">
+      <c r="F9" s="104">
         <f t="shared" si="0"/>
         <v>314.76340320945826</v>
       </c>
-      <c r="G9" s="133">
+      <c r="G9" s="105">
         <f t="shared" si="1"/>
         <v>440.66876449324155</v>
       </c>
@@ -23434,11 +23486,11 @@
       <c r="E10" s="101" t="s">
         <v>148</v>
       </c>
-      <c r="F10" s="132">
+      <c r="F10" s="104">
         <f t="shared" si="0"/>
         <v>315.41718405946114</v>
       </c>
-      <c r="G10" s="133">
+      <c r="G10" s="105">
         <f t="shared" si="1"/>
         <v>441.58405768324559</v>
       </c>
@@ -23459,11 +23511,11 @@
       <c r="E11" s="101" t="s">
         <v>160</v>
       </c>
-      <c r="F11" s="132">
+      <c r="F11" s="104">
         <f t="shared" si="0"/>
         <v>359.11001099941507</v>
       </c>
-      <c r="G11" s="133">
+      <c r="G11" s="105">
         <f t="shared" si="1"/>
         <v>502.75401539918107</v>
       </c>
@@ -23484,11 +23536,11 @@
       <c r="E12" s="101" t="s">
         <v>137</v>
       </c>
-      <c r="F12" s="132">
+      <c r="F12" s="104">
         <f t="shared" si="0"/>
         <v>342.43831561319183</v>
       </c>
-      <c r="G12" s="133">
+      <c r="G12" s="105">
         <f t="shared" si="1"/>
         <v>479.41364185846851</v>
       </c>
@@ -23509,11 +23561,11 @@
       <c r="E13" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="F13" s="132">
+      <c r="F13" s="104">
         <f t="shared" si="0"/>
         <v>343.96511451017818</v>
       </c>
-      <c r="G13" s="133">
+      <c r="G13" s="105">
         <f t="shared" si="1"/>
         <v>481.55116031424944</v>
       </c>
@@ -23534,11 +23586,11 @@
       <c r="E14" s="101" t="s">
         <v>161</v>
       </c>
-      <c r="F14" s="132">
+      <c r="F14" s="104">
         <f t="shared" si="0"/>
         <v>379.92104442897079</v>
       </c>
-      <c r="G14" s="133">
+      <c r="G14" s="105">
         <f t="shared" si="1"/>
         <v>531.88946220055902</v>
       </c>
@@ -23559,11 +23611,11 @@
       <c r="E15" s="101" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="132">
+      <c r="F15" s="104">
         <f t="shared" si="0"/>
         <v>220.54478003344354</v>
       </c>
-      <c r="G15" s="133">
+      <c r="G15" s="105">
         <f t="shared" si="1"/>
         <v>308.76269204682092</v>
       </c>
@@ -23584,11 +23636,11 @@
       <c r="E16" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="F16" s="132">
+      <c r="F16" s="104">
         <f t="shared" si="0"/>
         <v>193.20455481173315</v>
       </c>
-      <c r="G16" s="133">
+      <c r="G16" s="105">
         <f t="shared" si="1"/>
         <v>270.48637673642639</v>
       </c>
@@ -23609,11 +23661,11 @@
       <c r="E17" s="101" t="s">
         <v>162</v>
       </c>
-      <c r="F17" s="132">
+      <c r="F17" s="104">
         <f t="shared" si="0"/>
         <v>219.47209389806258</v>
       </c>
-      <c r="G17" s="133">
+      <c r="G17" s="105">
         <f t="shared" si="1"/>
         <v>307.2609314572876</v>
       </c>
@@ -23634,11 +23686,11 @@
       <c r="E18" s="101" t="s">
         <v>139</v>
       </c>
-      <c r="F18" s="132">
+      <c r="F18" s="104">
         <f t="shared" si="0"/>
         <v>349.11316216951775</v>
       </c>
-      <c r="G18" s="133">
+      <c r="G18" s="105">
         <f t="shared" si="1"/>
         <v>488.75842703732479</v>
       </c>
@@ -23659,11 +23711,11 @@
       <c r="E19" s="101" t="s">
         <v>151</v>
       </c>
-      <c r="F19" s="132">
+      <c r="F19" s="104">
         <f t="shared" si="0"/>
         <v>358.59168980889672</v>
       </c>
-      <c r="G19" s="133">
+      <c r="G19" s="105">
         <f t="shared" si="1"/>
         <v>502.02836573245537</v>
       </c>
@@ -23684,11 +23736,11 @@
       <c r="E20" s="101" t="s">
         <v>163</v>
       </c>
-      <c r="F20" s="132">
+      <c r="F20" s="104">
         <f t="shared" si="0"/>
         <v>372.33318412411217</v>
       </c>
-      <c r="G20" s="133">
+      <c r="G20" s="105">
         <f t="shared" si="1"/>
         <v>521.266457773757</v>
       </c>
@@ -23709,11 +23761,11 @@
       <c r="E21" s="101" t="s">
         <v>140</v>
       </c>
-      <c r="F21" s="132">
+      <c r="F21" s="104">
         <f t="shared" si="0"/>
         <v>406.93488422596556</v>
       </c>
-      <c r="G21" s="133">
+      <c r="G21" s="105">
         <f t="shared" si="1"/>
         <v>569.70883791635174</v>
       </c>
@@ -23734,11 +23786,11 @@
       <c r="E22" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="132">
+      <c r="F22" s="104">
         <f t="shared" si="0"/>
         <v>410.39980506817983</v>
       </c>
-      <c r="G22" s="133">
+      <c r="G22" s="105">
         <f t="shared" si="1"/>
         <v>574.55972709545176</v>
       </c>
@@ -23759,11 +23811,11 @@
       <c r="E23" s="101" t="s">
         <v>186</v>
       </c>
-      <c r="F23" s="132">
+      <c r="F23" s="104">
         <f t="shared" si="0"/>
         <v>451.06983938188552</v>
       </c>
-      <c r="G23" s="133">
+      <c r="G23" s="105">
         <f t="shared" si="1"/>
         <v>631.49777513463971</v>
       </c>
@@ -23784,11 +23836,11 @@
       <c r="E24" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="F24" s="132">
+      <c r="F24" s="104">
         <f t="shared" si="0"/>
         <v>173.95401691251627</v>
       </c>
-      <c r="G24" s="133">
+      <c r="G24" s="105">
         <f t="shared" si="1"/>
         <v>243.53562367752275</v>
       </c>
@@ -23809,11 +23861,11 @@
       <c r="E25" s="101" t="s">
         <v>153</v>
       </c>
-      <c r="F25" s="132">
+      <c r="F25" s="104">
         <f t="shared" si="0"/>
         <v>179.3655485314836</v>
       </c>
-      <c r="G25" s="133">
+      <c r="G25" s="105">
         <f t="shared" si="1"/>
         <v>251.11176794407703</v>
       </c>
@@ -23834,11 +23886,11 @@
       <c r="E26" s="101" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="132">
+      <c r="F26" s="104">
         <f t="shared" si="0"/>
         <v>215.74985515638244</v>
       </c>
-      <c r="G26" s="133">
+      <c r="G26" s="105">
         <f t="shared" si="1"/>
         <v>302.0497972189354</v>
       </c>
@@ -23859,11 +23911,11 @@
       <c r="E27" s="101" t="s">
         <v>142</v>
       </c>
-      <c r="F27" s="132">
+      <c r="F27" s="104">
         <f t="shared" si="0"/>
         <v>218.51315749858176</v>
       </c>
-      <c r="G27" s="133">
+      <c r="G27" s="105">
         <f t="shared" si="1"/>
         <v>305.91842049801443</v>
       </c>
@@ -23884,11 +23936,11 @@
       <c r="E28" s="101" t="s">
         <v>154</v>
       </c>
-      <c r="F28" s="132">
+      <c r="F28" s="104">
         <f t="shared" si="0"/>
         <v>228.53446129632178</v>
       </c>
-      <c r="G28" s="133">
+      <c r="G28" s="105">
         <f t="shared" si="1"/>
         <v>319.94824581485045</v>
       </c>
@@ -23909,11 +23961,11 @@
       <c r="E29" s="101" t="s">
         <v>166</v>
       </c>
-      <c r="F29" s="132">
+      <c r="F29" s="104">
         <f t="shared" si="0"/>
         <v>290.16547003391014</v>
       </c>
-      <c r="G29" s="133">
+      <c r="G29" s="105">
         <f t="shared" si="1"/>
         <v>406.23165804747418</v>
       </c>
@@ -23934,11 +23986,11 @@
       <c r="E30" s="101" t="s">
         <v>143</v>
       </c>
-      <c r="F30" s="132">
+      <c r="F30" s="104">
         <f t="shared" si="0"/>
         <v>169.75276139138356</v>
       </c>
-      <c r="G30" s="133">
+      <c r="G30" s="105">
         <f t="shared" si="1"/>
         <v>237.65386594793696</v>
       </c>
@@ -23959,11 +24011,11 @@
       <c r="E31" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="F31" s="132">
+      <c r="F31" s="104">
         <f t="shared" si="0"/>
         <v>157.48015748023622</v>
       </c>
-      <c r="G31" s="133">
+      <c r="G31" s="105">
         <f t="shared" si="1"/>
         <v>220.47222047233069</v>
       </c>
@@ -23984,11 +24036,11 @@
       <c r="E32" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="F32" s="132">
+      <c r="F32" s="104">
         <f t="shared" si="0"/>
         <v>207.42227459942677</v>
       </c>
-      <c r="G32" s="133">
+      <c r="G32" s="105">
         <f t="shared" si="1"/>
         <v>290.39118443919745</v>
       </c>
@@ -24009,11 +24061,11 @@
       <c r="E33" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="F33" s="132">
+      <c r="F33" s="104">
         <f t="shared" si="0"/>
         <v>80.423877051532401</v>
       </c>
-      <c r="G33" s="133">
+      <c r="G33" s="105">
         <f t="shared" si="1"/>
         <v>112.59342787214536</v>
       </c>
@@ -24034,11 +24086,11 @@
       <c r="E34" s="101" t="s">
         <v>187</v>
       </c>
-      <c r="F34" s="132">
+      <c r="F34" s="104">
         <f t="shared" si="0"/>
         <v>66.483080554378645</v>
       </c>
-      <c r="G34" s="133">
+      <c r="G34" s="105">
         <f t="shared" si="1"/>
         <v>93.076312776130095</v>
       </c>
@@ -24059,11 +24111,11 @@
       <c r="E35" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="F35" s="132">
+      <c r="F35" s="104">
         <f xml:space="preserve"> SQRT(C35)*2</f>
         <v>73.047929470998696</v>
       </c>
-      <c r="G35" s="133">
+      <c r="G35" s="105">
         <f t="shared" si="1"/>
         <v>102.26710125939817</v>
       </c>
@@ -24084,11 +24136,11 @@
       <c r="E36" s="101" t="s">
         <v>145</v>
       </c>
-      <c r="F36" s="132">
+      <c r="F36" s="104">
         <f t="shared" si="0"/>
         <v>349.94285247737236</v>
       </c>
-      <c r="G36" s="133">
+      <c r="G36" s="105">
         <f t="shared" si="1"/>
         <v>489.91999346832125</v>
       </c>
@@ -24109,11 +24161,11 @@
       <c r="E37" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="F37" s="132">
+      <c r="F37" s="104">
         <f t="shared" si="0"/>
         <v>344.60412069503752</v>
       </c>
-      <c r="G37" s="133">
+      <c r="G37" s="105">
         <f t="shared" si="1"/>
         <v>482.44576897305251</v>
       </c>
@@ -24134,11 +24186,11 @@
       <c r="E38" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="F38" s="132">
+      <c r="F38" s="104">
         <f t="shared" si="0"/>
         <v>373.53446962763689</v>
       </c>
-      <c r="G38" s="133">
+      <c r="G38" s="105">
         <f t="shared" si="1"/>
         <v>522.94825747869163</v>
       </c>
@@ -24159,11 +24211,11 @@
       <c r="E39" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="F39" s="132">
+      <c r="F39" s="104">
         <f t="shared" si="0"/>
         <v>115.65465835840769</v>
       </c>
-      <c r="G39" s="133">
+      <c r="G39" s="105">
         <f t="shared" si="1"/>
         <v>161.91652170177076</v>
       </c>
@@ -24184,11 +24236,11 @@
       <c r="E40" s="101" t="s">
         <v>158</v>
       </c>
-      <c r="F40" s="132">
+      <c r="F40" s="104">
         <f t="shared" si="0"/>
         <v>108.9954127475097</v>
       </c>
-      <c r="G40" s="133">
+      <c r="G40" s="105">
         <f t="shared" si="1"/>
         <v>152.59357784651357</v>
       </c>
@@ -24209,37 +24261,37 @@
       <c r="E41" s="101" t="s">
         <v>170</v>
       </c>
-      <c r="F41" s="132">
+      <c r="F41" s="104">
         <f t="shared" si="0"/>
         <v>142.12670403551894</v>
       </c>
-      <c r="G41" s="133">
+      <c r="G41" s="105">
         <f t="shared" si="1"/>
         <v>198.9773856497265</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="F42" s="132">
+      <c r="F42" s="104">
         <f>MAX(F3:F41)</f>
         <v>451.06983938188552</v>
       </c>
-      <c r="G42" s="133">
+      <c r="G42" s="105">
         <f t="shared" si="1"/>
         <v>631.49777513463971</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="F43" s="132">
+      <c r="F43" s="104">
         <f>MIN(F3:F41)</f>
         <v>66.483080554378645</v>
       </c>
-      <c r="G43" s="133">
+      <c r="G43" s="105">
         <f t="shared" si="1"/>
         <v>93.076312776130095</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="G44" s="133">
+      <c r="G44" s="105">
         <f>AVERAGE(G3:G41)</f>
         <v>359.89933450108464</v>
       </c>
